--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj_perso\Cartes\project\CardsGame\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corentin\Documents\Programmes\PokemonTradingCardQML\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="439">
   <si>
     <t>Nom</t>
   </si>
@@ -1237,12 +1237,120 @@
   </si>
   <si>
     <t>Retirez jusqu'à 2 marqueurs de dégâts d'1 de vos Pokémon.</t>
+  </si>
+  <si>
+    <t>Hypnose</t>
+  </si>
+  <si>
+    <t>Le Pokémon Défenseur est maintenant Endormi.</t>
+  </si>
+  <si>
+    <t>Dévorêve</t>
+  </si>
+  <si>
+    <t>Vous ne pouvez utiliser cette attaque que si le Pokémon Défenseur est Endormi.</t>
+  </si>
+  <si>
+    <t>Défaussez 1 carte Énergie psy attachée à Kadabra pour pouvoir utiliser cette attaque. Retirez tous les marqueurs de dégâts sur Kadabra.</t>
+  </si>
+  <si>
+    <t>Super psy</t>
+  </si>
+  <si>
+    <t>Lancez une pièce. Si c'est face, prévenez tous les dégâts infligés à Coconfort pendant le prochain tour de votre adversaire. (Tout autre effet ou attaque est toujours valide.)</t>
+  </si>
+  <si>
+    <t>Poing-Karaté</t>
+  </si>
+  <si>
+    <t>Inflige 50 dégâts moins 10 dégâts pour chaque marqueur de dégâts sur Machopeur.</t>
+  </si>
+  <si>
+    <t>Sacrifice</t>
+  </si>
+  <si>
+    <t>Machopeur s'inflige 20 dégâts.</t>
+  </si>
+  <si>
+    <t>Nageoire</t>
+  </si>
+  <si>
+    <t>Inflige 10 dégâts multipliés par le nombre de marqueurs de dégâts sur Magicarpe.</t>
+  </si>
+  <si>
+    <t>Poing de Feu</t>
+  </si>
+  <si>
+    <t>Défaussez 1 carte Énergie feu attachée à Magmar pour pouvoir utiliser cette attaque.</t>
+  </si>
+  <si>
+    <t>Double Pied</t>
+  </si>
+  <si>
+    <t>Empal Korne</t>
+  </si>
+  <si>
+    <t>Amnésie</t>
+  </si>
+  <si>
+    <t>Choisissez 1 des attaques du Pokémon Défenseur. Ce Pokémon ne peut pas utiliser cette attaque pendant le prochain tour de votre adversaire.</t>
+  </si>
+  <si>
+    <t>Adaptation 1</t>
+  </si>
+  <si>
+    <t>Si le Pokémon Défenseur avait une Faiblesse, vous pouvez la changer pour le type de votre choix, excepté Incolore.</t>
+  </si>
+  <si>
+    <t>Adaptation 2</t>
+  </si>
+  <si>
+    <t>Changez la Résistance de Porygon pour un type de votre choix, excepté Incolore.</t>
+  </si>
+  <si>
+    <t>Croc Fatal</t>
+  </si>
+  <si>
+    <t>Inflige une quantité de dégâts au Pokémon Défenseur égale à la moitié de ses PV restants (arrondis à la dizaine la plus proche).</t>
+  </si>
+  <si>
+    <t>Coup d'Boule</t>
+  </si>
+  <si>
+    <t>Choc Psy</t>
+  </si>
+  <si>
+    <t>Tunnel</t>
+  </si>
+  <si>
+    <t>Jet de boue</t>
+  </si>
+  <si>
+    <t>Furie</t>
+  </si>
+  <si>
+    <t>Ecras'Face</t>
+  </si>
+  <si>
+    <t>Onde Folie</t>
+  </si>
+  <si>
+    <t>Lancez une pièce. Si c'est face, le Pokémon Défenseur est maintenant Confus.</t>
+  </si>
+  <si>
+    <t>Gaz Soporifique</t>
+  </si>
+  <si>
+    <t>Prélévement du Destin</t>
+  </si>
+  <si>
+    <t>Défaussez 1 carte Énergie psy attachée à Fantominus pour pouvoir utiliser cette attaque. Si un Pokémon met Fantominus K.O. pendant le prochain tour de votre adversaire, mettez ce Pokémon K.O.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1475,34 +1583,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1510,6 +1594,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1793,8 +1901,8 @@
   <dimension ref="B1:BV204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,174 +1924,174 @@
   <sheetData>
     <row r="1" spans="2:74" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="8" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="12" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="8" t="s">
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="9"/>
-      <c r="BK2" s="9"/>
-      <c r="BL2" s="9"/>
-      <c r="BM2" s="9"/>
-      <c r="BN2" s="9"/>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="9"/>
-      <c r="BQ2" s="9"/>
-      <c r="BR2" s="11"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="23"/>
+      <c r="BK2" s="23"/>
+      <c r="BL2" s="23"/>
+      <c r="BM2" s="23"/>
+      <c r="BN2" s="23"/>
+      <c r="BO2" s="23"/>
+      <c r="BP2" s="23"/>
+      <c r="BQ2" s="23"/>
+      <c r="BR2" s="24"/>
       <c r="BS2" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="BT2" s="14"/>
-      <c r="BU2" s="14"/>
-      <c r="BV2" s="15"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="21"/>
     </row>
     <row r="3" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="6"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9" t="s">
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="10"/>
+      <c r="AE3" s="25"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
-      <c r="AL3" s="9" t="s">
+      <c r="AL3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9" t="s">
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="23"/>
+      <c r="AX3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AY3" s="11"/>
+      <c r="AY3" s="24"/>
       <c r="AZ3" s="6"/>
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
-      <c r="BE3" s="9" t="s">
+      <c r="BE3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9"/>
-      <c r="BH3" s="9"/>
-      <c r="BI3" s="9"/>
-      <c r="BJ3" s="9"/>
-      <c r="BK3" s="9"/>
-      <c r="BL3" s="9"/>
-      <c r="BM3" s="9"/>
-      <c r="BN3" s="9"/>
-      <c r="BO3" s="9"/>
-      <c r="BP3" s="9"/>
-      <c r="BQ3" s="9" t="s">
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="23"/>
+      <c r="BH3" s="23"/>
+      <c r="BI3" s="23"/>
+      <c r="BJ3" s="23"/>
+      <c r="BK3" s="23"/>
+      <c r="BL3" s="23"/>
+      <c r="BM3" s="23"/>
+      <c r="BN3" s="23"/>
+      <c r="BO3" s="23"/>
+      <c r="BP3" s="23"/>
+      <c r="BQ3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="BR3" s="11"/>
+      <c r="BR3" s="24"/>
       <c r="BS3" s="6"/>
       <c r="BT3" s="1"/>
       <c r="BU3" s="1"/>
@@ -2197,16 +2305,16 @@
       <c r="BR4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="BS4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="13" t="s">
+      <c r="BS4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="BU4" s="13" t="s">
+      <c r="BU4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="BV4" s="16" t="s">
+      <c r="BV4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3189,7 +3297,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>47</v>
@@ -3292,7 +3400,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>48</v>
@@ -3591,23 +3699,39 @@
         <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="E18" s="1">
+        <v>80</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
       <c r="K18" s="4">
         <v>13</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="L18" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -3618,16 +3742,26 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
+      <c r="Y18" s="1">
+        <v>2</v>
+      </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
+      <c r="AD18" s="1">
+        <v>34</v>
+      </c>
       <c r="AE18" s="7"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="1"/>
+      <c r="AF18" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG18" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>20</v>
+      </c>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -3636,15 +3770,21 @@
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
+      <c r="AQ18" s="1">
+        <v>2</v>
+      </c>
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="4"/>
+      <c r="AX18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY18" s="4">
+        <v>3</v>
+      </c>
       <c r="AZ18" s="6"/>
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
@@ -4102,25 +4242,37 @@
         <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>60</v>
+      </c>
       <c r="F24" s="1">
         <v>10</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>12</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
       <c r="K24" s="4">
         <v>19</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>20</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -4131,16 +4283,24 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
+      <c r="Y24" s="1">
+        <v>1</v>
+      </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="7"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="1"/>
+      <c r="AF24" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG24" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0</v>
+      </c>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -4151,12 +4311,16 @@
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
+      <c r="AS24" s="1">
+        <v>3</v>
+      </c>
       <c r="AT24" s="1"/>
       <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
+      <c r="AX24" s="1">
+        <v>32</v>
+      </c>
       <c r="AY24" s="4"/>
       <c r="AZ24" s="6"/>
       <c r="BA24" s="1"/>
@@ -5186,23 +5350,37 @@
         <v>33</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="E37" s="1">
+        <v>60</v>
+      </c>
+      <c r="F37" s="1">
+        <v>8</v>
+      </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1">
+        <v>12</v>
+      </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
       <c r="K37" s="4">
         <v>32</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="L37" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -5211,18 +5389,30 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
+      <c r="W37" s="1">
+        <v>1</v>
+      </c>
       <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
+      <c r="Y37" s="1">
+        <v>2</v>
+      </c>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="5"/>
+      <c r="AD37" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE37" s="7">
+        <v>30</v>
+      </c>
+      <c r="AF37" s="5" t="s">
+        <v>419</v>
+      </c>
       <c r="AG37" s="5"/>
-      <c r="AH37" s="1"/>
+      <c r="AH37" s="1">
+        <v>50</v>
+      </c>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -5231,9 +5421,13 @@
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
-      <c r="AQ37" s="1"/>
+      <c r="AQ37" s="1">
+        <v>2</v>
+      </c>
       <c r="AR37" s="1"/>
-      <c r="AS37" s="1"/>
+      <c r="AS37" s="1">
+        <v>2</v>
+      </c>
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
@@ -6609,26 +6803,42 @@
         <v>50</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="E54" s="1">
+        <v>30</v>
+      </c>
+      <c r="F54" s="1">
+        <v>4</v>
+      </c>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="H54" s="1">
+        <v>8</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
       <c r="K54" s="4"/>
-      <c r="L54" s="6"/>
+      <c r="L54" s="6" t="s">
+        <v>430</v>
+      </c>
       <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="N54" s="1">
+        <v>10</v>
+      </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
+      <c r="S54" s="1">
+        <v>1</v>
+      </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
@@ -6641,14 +6851,20 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="7"/>
-      <c r="AF54" s="5"/>
+      <c r="AF54" s="5" t="s">
+        <v>431</v>
+      </c>
       <c r="AG54" s="5"/>
-      <c r="AH54" s="1"/>
+      <c r="AH54" s="1">
+        <v>30</v>
+      </c>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
-      <c r="AM54" s="1"/>
+      <c r="AM54" s="1">
+        <v>2</v>
+      </c>
       <c r="AN54" s="1"/>
       <c r="AO54" s="1"/>
       <c r="AP54" s="1"/>
@@ -7515,23 +7731,37 @@
         <v>61</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="E65" s="1">
+        <v>60</v>
+      </c>
+      <c r="F65" s="1">
+        <v>14</v>
+      </c>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="H65" s="1">
+        <v>8</v>
+      </c>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="J65" s="1">
+        <v>1</v>
+      </c>
       <c r="K65" s="4">
         <v>60</v>
       </c>
-      <c r="L65" s="6"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
+      <c r="L65" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -7546,12 +7776,22 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
-      <c r="AD65" s="1"/>
+      <c r="AC65" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>29</v>
+      </c>
       <c r="AE65" s="7"/>
-      <c r="AF65" s="5"/>
-      <c r="AG65" s="5"/>
-      <c r="AH65" s="1"/>
+      <c r="AF65" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="AG65" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>0</v>
+      </c>
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
@@ -7562,13 +7802,21 @@
       <c r="AP65" s="1"/>
       <c r="AQ65" s="1"/>
       <c r="AR65" s="1"/>
-      <c r="AS65" s="1"/>
+      <c r="AS65" s="1">
+        <v>1</v>
+      </c>
       <c r="AT65" s="1"/>
       <c r="AU65" s="1"/>
       <c r="AV65" s="1"/>
-      <c r="AW65" s="1"/>
-      <c r="AX65" s="1"/>
-      <c r="AY65" s="4"/>
+      <c r="AW65" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX65" s="1">
+        <v>11</v>
+      </c>
+      <c r="AY65" s="4">
+        <v>30</v>
+      </c>
       <c r="AZ65" s="6"/>
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
@@ -7689,21 +7937,35 @@
         <v>63</v>
       </c>
       <c r="C67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="E67" s="1">
+        <v>30</v>
+      </c>
+      <c r="F67" s="1">
+        <v>12</v>
+      </c>
       <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="H67" s="1">
+        <v>12</v>
+      </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
       <c r="K67" s="4"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
+      <c r="L67" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N67" s="1">
+        <v>10</v>
+      </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -7716,11 +7978,17 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
+      <c r="AA67" s="1">
+        <v>1</v>
+      </c>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="7"/>
+      <c r="AD67" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE67" s="7">
+        <v>2</v>
+      </c>
       <c r="AF67" s="5"/>
       <c r="AG67" s="5"/>
       <c r="AH67" s="1"/>
@@ -7770,23 +8038,37 @@
         <v>64</v>
       </c>
       <c r="C68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="E68" s="1">
+        <v>60</v>
+      </c>
+      <c r="F68" s="1">
+        <v>12</v>
+      </c>
       <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="H68" s="1">
+        <v>12</v>
+      </c>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="J68" s="1">
+        <v>3</v>
+      </c>
       <c r="K68" s="4">
         <v>63</v>
       </c>
-      <c r="L68" s="6"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
+      <c r="L68" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -7799,14 +8081,24 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
+      <c r="AA68" s="1">
+        <v>2</v>
+      </c>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="7"/>
-      <c r="AF68" s="5"/>
+      <c r="AD68" s="1">
+        <v>26</v>
+      </c>
+      <c r="AE68" s="7">
+        <v>12</v>
+      </c>
+      <c r="AF68" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="AG68" s="5"/>
-      <c r="AH68" s="1"/>
+      <c r="AH68" s="1">
+        <v>50</v>
+      </c>
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
@@ -7817,9 +8109,13 @@
       <c r="AP68" s="1"/>
       <c r="AQ68" s="1"/>
       <c r="AR68" s="1"/>
-      <c r="AS68" s="1"/>
+      <c r="AS68" s="1">
+        <v>1</v>
+      </c>
       <c r="AT68" s="1"/>
-      <c r="AU68" s="1"/>
+      <c r="AU68" s="1">
+        <v>2</v>
+      </c>
       <c r="AV68" s="1"/>
       <c r="AW68" s="1"/>
       <c r="AX68" s="1"/>
@@ -8041,60 +8337,96 @@
         <v>67</v>
       </c>
       <c r="C71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="E71" s="1">
+        <v>80</v>
+      </c>
+      <c r="F71" s="1">
+        <v>4</v>
+      </c>
       <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="H71" s="1">
+        <v>12</v>
+      </c>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="J71" s="1">
+        <v>3</v>
+      </c>
       <c r="K71" s="4">
         <v>66</v>
       </c>
-      <c r="L71" s="6"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
+      <c r="L71" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
+      <c r="S71" s="1">
+        <v>2</v>
+      </c>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
+      <c r="Y71" s="1">
+        <v>1</v>
+      </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="7"/>
-      <c r="AF71" s="5"/>
-      <c r="AG71" s="5"/>
-      <c r="AH71" s="1"/>
+      <c r="AD71" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE71" s="7">
+        <v>50</v>
+      </c>
+      <c r="AF71" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="AG71" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>60</v>
+      </c>
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
       <c r="AK71" s="1"/>
       <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
+      <c r="AM71" s="1">
+        <v>2</v>
+      </c>
       <c r="AN71" s="1"/>
       <c r="AO71" s="1"/>
       <c r="AP71" s="1"/>
       <c r="AQ71" s="1"/>
       <c r="AR71" s="1"/>
-      <c r="AS71" s="1"/>
+      <c r="AS71" s="1">
+        <v>2</v>
+      </c>
       <c r="AT71" s="1"/>
       <c r="AU71" s="1"/>
       <c r="AV71" s="1"/>
       <c r="AW71" s="1"/>
-      <c r="AX71" s="1"/>
-      <c r="AY71" s="4"/>
+      <c r="AX71" s="1">
+        <v>23</v>
+      </c>
+      <c r="AY71" s="4">
+        <v>20</v>
+      </c>
       <c r="AZ71" s="6"/>
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
@@ -9458,21 +9790,37 @@
         <v>84</v>
       </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="E88" s="1">
+        <v>50</v>
+      </c>
+      <c r="F88" s="1">
+        <v>10</v>
+      </c>
       <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
+      <c r="H88" s="1">
+        <v>3</v>
+      </c>
+      <c r="I88" s="1">
+        <v>4</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
       <c r="K88" s="4"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
+      <c r="L88" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0</v>
+      </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -9483,13 +9831,19 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
-      <c r="Y88" s="1"/>
+      <c r="Y88" s="1">
+        <v>1</v>
+      </c>
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="7"/>
+      <c r="AD88" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE88" s="7">
+        <v>10</v>
+      </c>
       <c r="AF88" s="5"/>
       <c r="AG88" s="5"/>
       <c r="AH88" s="1"/>
@@ -9622,21 +9976,33 @@
         <v>86</v>
       </c>
       <c r="C90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="E90" s="1">
+        <v>60</v>
+      </c>
+      <c r="F90" s="1">
+        <v>14</v>
+      </c>
       <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
+      <c r="H90" s="1">
+        <v>3</v>
+      </c>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="J90" s="1">
+        <v>1</v>
+      </c>
       <c r="K90" s="4"/>
-      <c r="L90" s="6"/>
+      <c r="L90" s="6" t="s">
+        <v>428</v>
+      </c>
       <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
+      <c r="N90" s="1">
+        <v>10</v>
+      </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -9651,7 +10017,9 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
+      <c r="AC90" s="1">
+        <v>1</v>
+      </c>
       <c r="AD90" s="1"/>
       <c r="AE90" s="7"/>
       <c r="AF90" s="5"/>
@@ -10113,21 +10481,35 @@
         <v>92</v>
       </c>
       <c r="C96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="E96" s="1">
+        <v>30</v>
+      </c>
+      <c r="F96" s="1">
+        <v>12</v>
+      </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
+      <c r="I96" s="1">
+        <v>4</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
       <c r="K96" s="4"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
+      <c r="L96" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0</v>
+      </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -10140,14 +10522,26 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
-      <c r="AA96" s="1"/>
+      <c r="AA96" s="1">
+        <v>1</v>
+      </c>
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
-      <c r="AD96" s="1"/>
-      <c r="AE96" s="7"/>
-      <c r="AF96" s="5"/>
-      <c r="AG96" s="5"/>
-      <c r="AH96" s="1"/>
+      <c r="AD96" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE96" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF96" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="AG96" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="AH96" s="1">
+        <v>0</v>
+      </c>
       <c r="AI96" s="1"/>
       <c r="AJ96" s="1"/>
       <c r="AK96" s="1"/>
@@ -10158,12 +10552,18 @@
       <c r="AP96" s="1"/>
       <c r="AQ96" s="1"/>
       <c r="AR96" s="1"/>
-      <c r="AS96" s="1"/>
+      <c r="AS96" s="1">
+        <v>1</v>
+      </c>
       <c r="AT96" s="1"/>
-      <c r="AU96" s="1"/>
+      <c r="AU96" s="1">
+        <v>1</v>
+      </c>
       <c r="AV96" s="1"/>
       <c r="AW96" s="1"/>
-      <c r="AX96" s="1"/>
+      <c r="AX96" s="1">
+        <v>35</v>
+      </c>
       <c r="AY96" s="4"/>
       <c r="AZ96" s="6"/>
       <c r="BA96" s="1"/>
@@ -10194,23 +10594,37 @@
         <v>93</v>
       </c>
       <c r="C97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="E97" s="1">
+        <v>60</v>
+      </c>
+      <c r="F97" s="1">
+        <v>12</v>
+      </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
+      <c r="I97" s="1">
+        <v>4</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1</v>
+      </c>
       <c r="K97" s="4">
         <v>92</v>
       </c>
-      <c r="L97" s="6"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
+      <c r="L97" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0</v>
+      </c>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -10223,14 +10637,26 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
-      <c r="AA97" s="1"/>
+      <c r="AA97" s="1">
+        <v>1</v>
+      </c>
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
-      <c r="AD97" s="1"/>
-      <c r="AE97" s="7"/>
-      <c r="AF97" s="5"/>
-      <c r="AG97" s="5"/>
-      <c r="AH97" s="1"/>
+      <c r="AD97" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE97" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF97" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG97" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="AH97" s="1">
+        <v>0</v>
+      </c>
       <c r="AI97" s="1"/>
       <c r="AJ97" s="1"/>
       <c r="AK97" s="1"/>
@@ -10243,11 +10669,17 @@
       <c r="AR97" s="1"/>
       <c r="AS97" s="1"/>
       <c r="AT97" s="1"/>
-      <c r="AU97" s="1"/>
+      <c r="AU97" s="1">
+        <v>2</v>
+      </c>
       <c r="AV97" s="1"/>
       <c r="AW97" s="1"/>
-      <c r="AX97" s="1"/>
-      <c r="AY97" s="4"/>
+      <c r="AX97" s="1">
+        <v>33</v>
+      </c>
+      <c r="AY97" s="4">
+        <v>50</v>
+      </c>
       <c r="AZ97" s="6"/>
       <c r="BA97" s="1"/>
       <c r="BB97" s="1"/>
@@ -10441,21 +10873,33 @@
         <v>96</v>
       </c>
       <c r="C100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+      <c r="E100" s="1">
+        <v>50</v>
+      </c>
+      <c r="F100" s="1">
+        <v>12</v>
+      </c>
       <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
+      <c r="H100" s="1">
+        <v>12</v>
+      </c>
       <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="J100" s="1">
+        <v>1</v>
+      </c>
       <c r="K100" s="4"/>
-      <c r="L100" s="6"/>
+      <c r="L100" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
+      <c r="N100" s="1">
+        <v>10</v>
+      </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -10468,14 +10912,22 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
-      <c r="AA100" s="1"/>
+      <c r="AA100" s="1">
+        <v>1</v>
+      </c>
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
       <c r="AD100" s="1"/>
       <c r="AE100" s="7"/>
-      <c r="AF100" s="5"/>
-      <c r="AG100" s="5"/>
-      <c r="AH100" s="1"/>
+      <c r="AF100" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG100" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="AH100" s="1">
+        <v>0</v>
+      </c>
       <c r="AI100" s="1"/>
       <c r="AJ100" s="1"/>
       <c r="AK100" s="1"/>
@@ -10491,8 +10943,12 @@
       <c r="AU100" s="1"/>
       <c r="AV100" s="1"/>
       <c r="AW100" s="1"/>
-      <c r="AX100" s="1"/>
-      <c r="AY100" s="4"/>
+      <c r="AX100" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY100" s="4">
+        <v>0</v>
+      </c>
       <c r="AZ100" s="6"/>
       <c r="BA100" s="1"/>
       <c r="BB100" s="1"/>
@@ -12820,7 +13276,7 @@
         <v>124</v>
       </c>
       <c r="C128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>162</v>
@@ -12992,27 +13448,41 @@
         <v>126</v>
       </c>
       <c r="C130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="E130" s="1">
+        <v>50</v>
+      </c>
+      <c r="F130" s="1">
+        <v>5</v>
+      </c>
       <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
+      <c r="H130" s="1">
+        <v>14</v>
+      </c>
       <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
+      <c r="J130" s="1">
+        <v>2</v>
+      </c>
       <c r="K130" s="4"/>
-      <c r="L130" s="6"/>
+      <c r="L130" s="6" t="s">
+        <v>416</v>
+      </c>
       <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
+      <c r="N130" s="1">
+        <v>30</v>
+      </c>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
-      <c r="T130" s="1"/>
+      <c r="T130" s="1">
+        <v>2</v>
+      </c>
       <c r="U130" s="1"/>
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
@@ -13024,26 +13494,40 @@
       <c r="AC130" s="1"/>
       <c r="AD130" s="1"/>
       <c r="AE130" s="7"/>
-      <c r="AF130" s="5"/>
-      <c r="AG130" s="5"/>
-      <c r="AH130" s="1"/>
+      <c r="AF130" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG130" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="AH130" s="1">
+        <v>50</v>
+      </c>
       <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
       <c r="AK130" s="1"/>
       <c r="AL130" s="1"/>
       <c r="AM130" s="1"/>
-      <c r="AN130" s="1"/>
+      <c r="AN130" s="1">
+        <v>2</v>
+      </c>
       <c r="AO130" s="1"/>
       <c r="AP130" s="1"/>
       <c r="AQ130" s="1"/>
       <c r="AR130" s="1"/>
-      <c r="AS130" s="1"/>
+      <c r="AS130" s="1">
+        <v>1</v>
+      </c>
       <c r="AT130" s="1"/>
       <c r="AU130" s="1"/>
       <c r="AV130" s="1"/>
       <c r="AW130" s="1"/>
-      <c r="AX130" s="1"/>
-      <c r="AY130" s="4"/>
+      <c r="AX130" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY130" s="4">
+        <v>4</v>
+      </c>
       <c r="AZ130" s="6"/>
       <c r="BA130" s="1"/>
       <c r="BB130" s="1"/>
@@ -13235,21 +13719,33 @@
         <v>129</v>
       </c>
       <c r="C133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+      <c r="E133" s="1">
+        <v>30</v>
+      </c>
+      <c r="F133" s="1">
+        <v>14</v>
+      </c>
       <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
+      <c r="H133" s="1">
+        <v>3</v>
+      </c>
       <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
+      <c r="J133" s="1">
+        <v>1</v>
+      </c>
       <c r="K133" s="4"/>
-      <c r="L133" s="6"/>
+      <c r="L133" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
+      <c r="N133" s="1">
+        <v>10</v>
+      </c>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
@@ -13260,16 +13756,24 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
-      <c r="Y133" s="1"/>
+      <c r="Y133" s="1">
+        <v>1</v>
+      </c>
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
       <c r="AC133" s="1"/>
       <c r="AD133" s="1"/>
       <c r="AE133" s="7"/>
-      <c r="AF133" s="5"/>
-      <c r="AG133" s="5"/>
-      <c r="AH133" s="1"/>
+      <c r="AF133" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="AG133" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="AH133" s="1">
+        <v>0</v>
+      </c>
       <c r="AI133" s="1"/>
       <c r="AJ133" s="1"/>
       <c r="AK133" s="1"/>
@@ -13284,9 +13788,15 @@
       <c r="AT133" s="1"/>
       <c r="AU133" s="1"/>
       <c r="AV133" s="1"/>
-      <c r="AW133" s="1"/>
-      <c r="AX133" s="1"/>
-      <c r="AY133" s="4"/>
+      <c r="AW133" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX133" s="1">
+        <v>28</v>
+      </c>
+      <c r="AY133" s="4">
+        <v>10</v>
+      </c>
       <c r="AZ133" s="6"/>
       <c r="BA133" s="1"/>
       <c r="BB133" s="1"/>
@@ -13887,21 +14397,37 @@
         <v>137</v>
       </c>
       <c r="C141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="E141" s="1">
+        <v>30</v>
+      </c>
+      <c r="F141" s="1">
+        <v>10</v>
+      </c>
       <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
+      <c r="H141" s="1">
+        <v>4</v>
+      </c>
+      <c r="I141" s="1">
+        <v>12</v>
+      </c>
+      <c r="J141" s="1">
+        <v>1</v>
+      </c>
       <c r="K141" s="4"/>
-      <c r="L141" s="6"/>
-      <c r="M141" s="1"/>
-      <c r="N141" s="1"/>
+      <c r="L141" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N141" s="1">
+        <v>0</v>
+      </c>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
@@ -13912,15 +14438,23 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
-      <c r="Y141" s="1"/>
+      <c r="Y141" s="1">
+        <v>1</v>
+      </c>
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
       <c r="AC141" s="1"/>
-      <c r="AD141" s="1"/>
+      <c r="AD141" s="1">
+        <v>30</v>
+      </c>
       <c r="AE141" s="7"/>
-      <c r="AF141" s="5"/>
-      <c r="AG141" s="5"/>
+      <c r="AF141" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="AG141" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="AH141" s="1"/>
       <c r="AI141" s="1"/>
       <c r="AJ141" s="1"/>
@@ -13932,12 +14466,16 @@
       <c r="AP141" s="1"/>
       <c r="AQ141" s="1"/>
       <c r="AR141" s="1"/>
-      <c r="AS141" s="1"/>
+      <c r="AS141" s="1">
+        <v>2</v>
+      </c>
       <c r="AT141" s="1"/>
       <c r="AU141" s="1"/>
       <c r="AV141" s="1"/>
       <c r="AW141" s="1"/>
-      <c r="AX141" s="1"/>
+      <c r="AX141" s="1">
+        <v>31</v>
+      </c>
       <c r="AY141" s="4"/>
       <c r="AZ141" s="6"/>
       <c r="BA141" s="1"/>
@@ -18693,10 +19231,10 @@
       <c r="BR204" s="4">
         <v>0</v>
       </c>
-      <c r="BS204" s="21"/>
-      <c r="BT204" s="17"/>
-      <c r="BU204" s="17"/>
-      <c r="BV204" s="18"/>
+      <c r="BS204" s="13"/>
+      <c r="BT204" s="10"/>
+      <c r="BU204" s="10"/>
+      <c r="BV204" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -18733,16 +19271,16 @@
   <sheetData>
     <row r="1" spans="2:5" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="16" t="s">
         <v>346</v>
       </c>
     </row>
@@ -18943,16 +19481,16 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25">
+      <c r="B17" s="17">
         <v>1014</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="10">
         <v>14</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="11">
         <v>1</v>
       </c>
     </row>
@@ -18966,35 +19504,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="76.42578125" customWidth="1"/>
+    <col min="5" max="5" width="78.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="D2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="16" t="s">
         <v>347</v>
       </c>
     </row>
@@ -19011,7 +19549,9 @@
       <c r="E3" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="6">
+        <v>2000</v>
+      </c>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -19027,7 +19567,9 @@
       <c r="E4" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="6">
+        <v>2001</v>
+      </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -19043,7 +19585,9 @@
       <c r="E5" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="6">
+        <v>2002</v>
+      </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -19051,7 +19595,7 @@
         <v>2003</v>
       </c>
       <c r="C6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>355</v>
@@ -19059,7 +19603,9 @@
       <c r="E6" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="6">
+        <v>2003</v>
+      </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -19075,7 +19621,9 @@
       <c r="E7" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="6">
+        <v>2004</v>
+      </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -19091,7 +19639,9 @@
       <c r="E8" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="6">
+        <v>2005</v>
+      </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -19107,7 +19657,9 @@
       <c r="E9" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="6">
+        <v>2006</v>
+      </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -19123,7 +19675,9 @@
       <c r="E10" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="6">
+        <v>2007</v>
+      </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -19139,7 +19693,9 @@
       <c r="E11" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="6">
+        <v>2008</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -19155,7 +19711,9 @@
       <c r="E12" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="6">
+        <v>2009</v>
+      </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -19171,7 +19729,9 @@
       <c r="E13" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="6">
+        <v>2010</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -19187,7 +19747,9 @@
       <c r="E14" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="6">
+        <v>2011</v>
+      </c>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -19195,7 +19757,7 @@
         <v>2012</v>
       </c>
       <c r="C15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>374</v>
@@ -19203,7 +19765,9 @@
       <c r="E15" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="6">
+        <v>2012</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -19219,7 +19783,9 @@
       <c r="E16" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="6">
+        <v>2013</v>
+      </c>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -19235,7 +19801,9 @@
       <c r="E17" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="6">
+        <v>2014</v>
+      </c>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -19251,7 +19819,9 @@
       <c r="E18" t="s">
         <v>399</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="6">
+        <v>2015</v>
+      </c>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -19267,7 +19837,9 @@
       <c r="E19" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="6">
+        <v>2016</v>
+      </c>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -19283,7 +19855,9 @@
       <c r="E20" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="6">
+        <v>2017</v>
+      </c>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -19291,7 +19865,7 @@
         <v>2018</v>
       </c>
       <c r="C21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>383</v>
@@ -19299,7 +19873,9 @@
       <c r="E21" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="6">
+        <v>2018</v>
+      </c>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -19315,7 +19891,9 @@
       <c r="E22" t="s">
         <v>401</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="6">
+        <v>2019</v>
+      </c>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -19323,7 +19901,7 @@
         <v>2020</v>
       </c>
       <c r="C23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>386</v>
@@ -19331,7 +19909,9 @@
       <c r="E23" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="6">
+        <v>2020</v>
+      </c>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -19339,7 +19919,7 @@
         <v>2021</v>
       </c>
       <c r="C24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>388</v>
@@ -19347,7 +19927,9 @@
       <c r="E24" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="6">
+        <v>2021</v>
+      </c>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -19363,7 +19945,9 @@
       <c r="E25" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="6">
+        <v>2022</v>
+      </c>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -19379,7 +19963,9 @@
       <c r="E26" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="6">
+        <v>2023</v>
+      </c>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -19387,7 +19973,7 @@
         <v>2024</v>
       </c>
       <c r="C27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>394</v>
@@ -19395,7 +19981,9 @@
       <c r="E27" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="6">
+        <v>2024</v>
+      </c>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -19411,7 +19999,9 @@
       <c r="E28" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="6">
+        <v>2025</v>
+      </c>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -19423,7 +20013,9 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="6">
+        <v>2026</v>
+      </c>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -19435,7 +20027,9 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="6">
+        <v>2027</v>
+      </c>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -19447,7 +20041,9 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="6">
+        <v>2028</v>
+      </c>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -19459,7 +20055,9 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="6">
+        <v>2029</v>
+      </c>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -19471,7 +20069,9 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="6">
+        <v>2030</v>
+      </c>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -19483,7 +20083,9 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="6">
+        <v>2031</v>
+      </c>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -19495,7 +20097,9 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="6">
+        <v>2032</v>
+      </c>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19505,10 +20109,12 @@
       <c r="C36" s="5">
         <v>0</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="6">
+        <v>2033</v>
+      </c>
+      <c r="G36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Pokemon" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Feuil5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="453">
   <si>
     <t>Nom</t>
   </si>
@@ -840,9 +841,6 @@
     <t>Cyclone</t>
   </si>
   <si>
-    <t>Si votre adversaire a au moins un Pokémon sur le banc, il ou elle choisit l'1 d'eux et l'échange avec le Pokémon Défenseur. (Appliquez les dégâts avant d'échanger les Pokémon.)</t>
-  </si>
-  <si>
     <t>Mimique</t>
   </si>
   <si>
@@ -918,9 +916,6 @@
     <t>Pistolet à O</t>
   </si>
   <si>
-    <t>Inflige 30 dégâts plus 10 dégâts supplémentaires pour chaque Énergie eau attachée à Tartard en plus du coût en énergie de cette attaque. Les Énergies eau supplémentaires après la seconde ne content pas.</t>
-  </si>
-  <si>
     <t>Lessiveuse</t>
   </si>
   <si>
@@ -1345,6 +1340,54 @@
   </si>
   <si>
     <t>Défaussez 1 carte Énergie psy attachée à Fantominus pour pouvoir utiliser cette attaque. Si un Pokémon met Fantominus K.O. pendant le prochain tour de votre adversaire, mettez ce Pokémon K.O.</t>
+  </si>
+  <si>
+    <t>Gaz infect</t>
+  </si>
+  <si>
+    <t>Lancez une pièce. Si c'est face, le Pokémon Défenseur est maintenant Empoisonné ; si c'est pile, il est maintenant Confus.</t>
+  </si>
+  <si>
+    <t>Balayage</t>
+  </si>
+  <si>
+    <t>Inflige 10 dégâts à chaque Pokémon sur le Banc de chaque joueur. (Ne pas appliquer la Faiblesse et la Résistance aux Pokémon sur le Banc. Magneti s'inflige 40 dégâts.</t>
+  </si>
+  <si>
+    <t>Chanc' Korne</t>
+  </si>
+  <si>
+    <t>Lancez une pièce. Si c'est pile, cette attaque est sans effet.</t>
+  </si>
+  <si>
+    <t>Jet-Pierres</t>
+  </si>
+  <si>
+    <t>Pendant le prochain tour de votre adversaire, à chaque fois que 30 dégâts ou moins sont infligés à Onix (après application de la Faiblesse et de la Résistance), prévenez ces dégâts. (Tout autre effet ou attaque est toujours valide.)</t>
+  </si>
+  <si>
+    <t>Si votre adversaire a au moins un Pokémon sur le Banc, il ou elle choisit l'1 d'eux et l'échange avec le Pokémon Défenseur. (Appliquez les dégâts avant d'échanger les Pokémon.)</t>
+  </si>
+  <si>
+    <t>Rogne</t>
+  </si>
+  <si>
+    <t>Secousse Tonnerre</t>
+  </si>
+  <si>
+    <t>Lancez une pièce. Si c'est pile, Pikachu s'inflige 10 dégâts.</t>
+  </si>
+  <si>
+    <t>Inflige 30 dégâts plus 10 dégâts supplémentaires pour chaque Énergie eau attachée à Ptitard en plus du coût en Énergie de cette attaque. Les Énergies eau supplémentaires après la seconde ne comptent pas.</t>
+  </si>
+  <si>
+    <t>Inflige 30 dégâts plus 10 dégâts supplémentaires pour chaque Énergie eau attachée à Tartard en plus du coût en énergie de cette attaque. Les Énergies eau supplémentaires après la seconde ne comptent pas.</t>
+  </si>
+  <si>
+    <t>Jet de Sable</t>
+  </si>
+  <si>
+    <t>Si le Pokémon Défenseur essaie d'attaquer pendant le prochain tour de votre adversaire, votre adversaire doit lancer une pièce. Si c'est pile, l'attaque reste sans effet.</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1411,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1570,11 +1613,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1618,6 +1674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1900,9 +1957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BV204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,7 +2159,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -2323,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
@@ -2424,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>39</v>
@@ -2640,7 +2697,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>41</v>
@@ -2968,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>44</v>
@@ -3081,7 +3138,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>45</v>
@@ -3596,7 +3653,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>50</v>
@@ -3727,7 +3784,7 @@
         <v>218</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -3902,25 +3959,39 @@
         <v>16</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>40</v>
+      </c>
       <c r="F20" s="1">
         <v>10</v>
       </c>
       <c r="G20" s="1">
         <v>6</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
       <c r="K20" s="4"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="L20" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="N20" s="1">
+        <v>10</v>
+      </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -3931,12 +4002,16 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
+      <c r="Y20" s="1">
+        <v>2</v>
+      </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
+      <c r="AD20" s="1">
+        <v>14</v>
+      </c>
       <c r="AE20" s="7"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
@@ -4017,7 +4092,7 @@
         <v>269</v>
       </c>
       <c r="M21" t="s">
-        <v>270</v>
+        <v>445</v>
       </c>
       <c r="N21">
         <v>10</v>
@@ -4029,10 +4104,10 @@
         <v>14</v>
       </c>
       <c r="AF21" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG21" t="s">
         <v>271</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>272</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -4159,23 +4234,35 @@
         <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>30</v>
+      </c>
       <c r="F23" s="1">
         <v>10</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="H23" s="1">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>20</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -4293,10 +4380,10 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="7"/>
       <c r="AF24" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AG24" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AH24" s="1">
         <v>0</v>
@@ -4687,23 +4774,33 @@
         <v>25</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>40</v>
+      </c>
       <c r="F29" s="1">
         <v>3</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
       <c r="K29" s="4"/>
-      <c r="L29" s="6"/>
+      <c r="L29" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1">
+        <v>10</v>
+      </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -4714,33 +4811,49 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
+      <c r="Y29" s="1">
+        <v>1</v>
+      </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="7"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="1"/>
+      <c r="AF29" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="AG29" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>30</v>
+      </c>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
+      <c r="AL29" s="1">
+        <v>1</v>
+      </c>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
-      <c r="AS29" s="1"/>
+      <c r="AS29" s="1">
+        <v>1</v>
+      </c>
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
-      <c r="AX29" s="1"/>
-      <c r="AY29" s="4"/>
+      <c r="AX29" s="1">
+        <v>10</v>
+      </c>
+      <c r="AY29" s="4">
+        <v>10</v>
+      </c>
       <c r="AZ29" s="6"/>
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
@@ -4791,10 +4904,10 @@
         <v>25</v>
       </c>
       <c r="L30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" t="s">
         <v>273</v>
-      </c>
-      <c r="M30" t="s">
-        <v>274</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -4809,10 +4922,10 @@
         <v>5</v>
       </c>
       <c r="AF30" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG30" t="s">
         <v>275</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>276</v>
       </c>
       <c r="AH30">
         <v>60</v>
@@ -4858,26 +4971,44 @@
         <v>27</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="1">
+        <v>40</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="H31" s="1">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
       <c r="K31" s="4"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="L31" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="N31" s="1">
+        <v>10</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
+      <c r="S31" s="1">
+        <v>1</v>
+      </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -4888,7 +5019,9 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
+      <c r="AD31" s="1">
+        <v>39</v>
+      </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
@@ -5269,21 +5402,35 @@
         <v>32</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="E36" s="1">
+        <v>40</v>
+      </c>
+      <c r="F36" s="1">
+        <v>8</v>
+      </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>12</v>
+      </c>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
       <c r="K36" s="4"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="L36" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -5292,15 +5439,21 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
+      <c r="W36" s="1">
+        <v>1</v>
+      </c>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="7"/>
+      <c r="AD36" s="1">
+        <v>37</v>
+      </c>
+      <c r="AE36" s="7">
+        <v>30</v>
+      </c>
       <c r="AF36" s="5"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="1"/>
@@ -5373,7 +5526,7 @@
         <v>32</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>267</v>
@@ -5407,7 +5560,7 @@
         <v>30</v>
       </c>
       <c r="AF37" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AG37" s="5"/>
       <c r="AH37" s="1">
@@ -5484,10 +5637,10 @@
         <v>33</v>
       </c>
       <c r="L38" t="s">
+        <v>276</v>
+      </c>
+      <c r="M38" t="s">
         <v>277</v>
-      </c>
-      <c r="M38" t="s">
-        <v>278</v>
       </c>
       <c r="N38">
         <v>30</v>
@@ -5505,10 +5658,10 @@
         <v>10</v>
       </c>
       <c r="AF38" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG38" t="s">
         <v>279</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>280</v>
       </c>
       <c r="AH38">
         <v>20</v>
@@ -5573,10 +5726,10 @@
       </c>
       <c r="K39" s="4"/>
       <c r="L39" t="s">
+        <v>280</v>
+      </c>
+      <c r="M39" t="s">
         <v>281</v>
-      </c>
-      <c r="M39" t="s">
-        <v>282</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -5591,10 +5744,10 @@
         <v>4</v>
       </c>
       <c r="AF39" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG39" t="s">
         <v>283</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>284</v>
       </c>
       <c r="AH39">
         <v>0</v>
@@ -5717,7 +5870,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>74</v>
@@ -5839,10 +5992,10 @@
         <v>37</v>
       </c>
       <c r="L42" t="s">
+        <v>284</v>
+      </c>
+      <c r="M42" t="s">
         <v>285</v>
-      </c>
-      <c r="M42" t="s">
-        <v>286</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -5854,10 +6007,10 @@
         <v>14</v>
       </c>
       <c r="AF42" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG42" t="s">
         <v>287</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>288</v>
       </c>
       <c r="AH42">
         <v>80</v>
@@ -6826,7 +6979,7 @@
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1">
@@ -6852,7 +7005,7 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="7"/>
       <c r="AF54" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AG54" s="5"/>
       <c r="AH54" s="1">
@@ -6942,10 +7095,10 @@
         <v>1</v>
       </c>
       <c r="AF55" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG55" t="s">
         <v>289</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>290</v>
       </c>
       <c r="AH55">
         <v>70</v>
@@ -7499,7 +7652,7 @@
       </c>
       <c r="K62" s="4"/>
       <c r="L62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N62">
         <v>20</v>
@@ -7583,7 +7736,7 @@
         <v>201</v>
       </c>
       <c r="M63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N63">
         <v>50</v>
@@ -7601,10 +7754,10 @@
         <v>5</v>
       </c>
       <c r="AF63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG63" t="s">
         <v>293</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>294</v>
       </c>
       <c r="AH63">
         <v>80</v>
@@ -7650,21 +7803,35 @@
         <v>60</v>
       </c>
       <c r="C64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="E64" s="1">
+        <v>40</v>
+      </c>
+      <c r="F64" s="1">
+        <v>14</v>
+      </c>
       <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="H64" s="1">
+        <v>8</v>
+      </c>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
       <c r="K64" s="4"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
+      <c r="L64" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="N64" s="1">
+        <v>30</v>
+      </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -7679,9 +7846,15 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
-      <c r="AD64" s="1"/>
-      <c r="AE64" s="7"/>
+      <c r="AC64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE64" s="7">
+        <v>10</v>
+      </c>
       <c r="AF64" s="5"/>
       <c r="AG64" s="5"/>
       <c r="AH64" s="1"/>
@@ -7754,10 +7927,10 @@
         <v>60</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N65" s="1">
         <v>0</v>
@@ -7784,7 +7957,7 @@
       </c>
       <c r="AE65" s="7"/>
       <c r="AF65" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AG65" s="5" t="s">
         <v>267</v>
@@ -7867,10 +8040,10 @@
         <v>61</v>
       </c>
       <c r="L66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M66" t="s">
-        <v>296</v>
+        <v>450</v>
       </c>
       <c r="N66">
         <v>30</v>
@@ -7888,10 +8061,10 @@
         <v>10</v>
       </c>
       <c r="AF66" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AG66" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AH66">
         <v>40</v>
@@ -7958,10 +8131,10 @@
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N67" s="1">
         <v>10</v>
@@ -8064,7 +8237,7 @@
         <v>253</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N68" s="1">
         <v>0</v>
@@ -8093,7 +8266,7 @@
         <v>12</v>
       </c>
       <c r="AF68" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG68" s="5"/>
       <c r="AH68" s="1">
@@ -8243,10 +8416,10 @@
       <c r="BQ69" s="1"/>
       <c r="BR69" s="4"/>
       <c r="BS69" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BT69" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BU69" s="1"/>
       <c r="BV69" s="7"/>
@@ -8256,26 +8429,40 @@
         <v>66</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="E70" s="1">
+        <v>50</v>
+      </c>
+      <c r="F70" s="1">
+        <v>4</v>
+      </c>
       <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="H70" s="1">
+        <v>12</v>
+      </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
       <c r="K70" s="4"/>
-      <c r="L70" s="6"/>
+      <c r="L70" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
+      <c r="N70" s="1">
+        <v>20</v>
+      </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
+      <c r="S70" s="1">
+        <v>1</v>
+      </c>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
@@ -8360,10 +8547,10 @@
         <v>66</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N71" s="1">
         <v>0</v>
@@ -8394,10 +8581,10 @@
         <v>50</v>
       </c>
       <c r="AF71" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AG71" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AH71" s="1">
         <v>60</v>
@@ -8477,7 +8664,7 @@
         <v>67</v>
       </c>
       <c r="L72" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N72">
         <v>60</v>
@@ -8528,10 +8715,10 @@
       <c r="BQ72" s="1"/>
       <c r="BR72" s="4"/>
       <c r="BS72" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BT72" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="BU72" s="1"/>
       <c r="BV72" s="7"/>
@@ -9199,7 +9386,7 @@
         <v>77</v>
       </c>
       <c r="C81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>115</v>
@@ -9547,25 +9734,41 @@
         <v>81</v>
       </c>
       <c r="C85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="E85" s="1">
+        <v>40</v>
+      </c>
+      <c r="F85" s="1">
+        <v>3</v>
+      </c>
       <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="H85" s="1">
+        <v>4</v>
+      </c>
       <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="J85" s="1">
+        <v>1</v>
+      </c>
       <c r="K85" s="4"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
+      <c r="L85" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N85" s="1">
+        <v>10</v>
+      </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
+      <c r="R85" s="1">
+        <v>1</v>
+      </c>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
@@ -9577,28 +9780,46 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
-      <c r="AE85" s="7"/>
-      <c r="AF85" s="5"/>
-      <c r="AG85" s="5"/>
-      <c r="AH85" s="1"/>
+      <c r="AD85" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE85" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF85" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG85" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="AH85" s="1">
+        <v>40</v>
+      </c>
       <c r="AI85" s="1"/>
       <c r="AJ85" s="1"/>
       <c r="AK85" s="1"/>
-      <c r="AL85" s="1"/>
+      <c r="AL85" s="1">
+        <v>1</v>
+      </c>
       <c r="AM85" s="1"/>
       <c r="AN85" s="1"/>
       <c r="AO85" s="1"/>
       <c r="AP85" s="1"/>
       <c r="AQ85" s="1"/>
       <c r="AR85" s="1"/>
-      <c r="AS85" s="1"/>
+      <c r="AS85" s="1">
+        <v>1</v>
+      </c>
       <c r="AT85" s="1"/>
       <c r="AU85" s="1"/>
       <c r="AV85" s="1"/>
       <c r="AW85" s="1"/>
-      <c r="AX85" s="1"/>
-      <c r="AY85" s="4"/>
+      <c r="AX85" s="1">
+        <v>15</v>
+      </c>
+      <c r="AY85" s="4">
+        <v>10</v>
+      </c>
       <c r="AZ85" s="6"/>
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
@@ -9649,10 +9870,10 @@
         <v>81</v>
       </c>
       <c r="L86" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M86" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N86">
         <v>30</v>
@@ -9670,10 +9891,10 @@
         <v>2</v>
       </c>
       <c r="AF86" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AG86" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AH86">
         <v>80</v>
@@ -9686,6 +9907,9 @@
       </c>
       <c r="AX86">
         <v>15</v>
+      </c>
+      <c r="AY86">
+        <v>20</v>
       </c>
       <c r="AZ86" s="6"/>
       <c r="BA86" s="1"/>
@@ -9738,10 +9962,10 @@
       </c>
       <c r="K87" s="4"/>
       <c r="L87" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M87" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N87">
         <v>30</v>
@@ -9753,7 +9977,7 @@
         <v>24</v>
       </c>
       <c r="AF87" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AH87">
         <v>30</v>
@@ -9813,10 +10037,10 @@
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N88" s="1">
         <v>0</v>
@@ -9997,7 +10221,7 @@
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1">
@@ -10092,7 +10316,7 @@
         <v>86</v>
       </c>
       <c r="L91" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N91">
         <v>30</v>
@@ -10104,10 +10328,10 @@
         <v>2</v>
       </c>
       <c r="AF91" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AG91" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AH91">
         <v>50</v>
@@ -10502,10 +10726,10 @@
       </c>
       <c r="K96" s="4"/>
       <c r="L96" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N96" s="1">
         <v>0</v>
@@ -10534,10 +10758,10 @@
         <v>4</v>
       </c>
       <c r="AF96" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AG96" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AH96" s="1">
         <v>0</v>
@@ -10617,10 +10841,10 @@
         <v>92</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N97" s="1">
         <v>0</v>
@@ -10649,10 +10873,10 @@
         <v>4</v>
       </c>
       <c r="AF97" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AG97" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AH97" s="1">
         <v>0</v>
@@ -10792,26 +11016,40 @@
         <v>95</v>
       </c>
       <c r="C99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
+      <c r="E99" s="1">
+        <v>90</v>
+      </c>
+      <c r="F99" s="1">
+        <v>4</v>
+      </c>
       <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
+      <c r="H99" s="1">
+        <v>8</v>
+      </c>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="J99" s="1">
+        <v>3</v>
+      </c>
       <c r="K99" s="4"/>
-      <c r="L99" s="6"/>
+      <c r="L99" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
+      <c r="N99" s="1">
+        <v>10</v>
+      </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
+      <c r="S99" s="1">
+        <v>1</v>
+      </c>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
@@ -10824,14 +11062,22 @@
       <c r="AC99" s="1"/>
       <c r="AD99" s="1"/>
       <c r="AE99" s="7"/>
-      <c r="AF99" s="5"/>
-      <c r="AG99" s="5"/>
-      <c r="AH99" s="1"/>
+      <c r="AF99" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG99" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="AH99" s="1">
+        <v>0</v>
+      </c>
       <c r="AI99" s="1"/>
       <c r="AJ99" s="1"/>
       <c r="AK99" s="1"/>
       <c r="AL99" s="1"/>
-      <c r="AM99" s="1"/>
+      <c r="AM99" s="1">
+        <v>2</v>
+      </c>
       <c r="AN99" s="1"/>
       <c r="AO99" s="1"/>
       <c r="AP99" s="1"/>
@@ -10842,8 +11088,12 @@
       <c r="AU99" s="1"/>
       <c r="AV99" s="1"/>
       <c r="AW99" s="1"/>
-      <c r="AX99" s="1"/>
-      <c r="AY99" s="4"/>
+      <c r="AX99" s="1">
+        <v>38</v>
+      </c>
+      <c r="AY99" s="4">
+        <v>30</v>
+      </c>
       <c r="AZ99" s="6"/>
       <c r="BA99" s="1"/>
       <c r="BB99" s="1"/>
@@ -10894,7 +11144,7 @@
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1">
@@ -10920,10 +11170,10 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="7"/>
       <c r="AF100" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AG100" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AH100" s="1">
         <v>0</v>
@@ -11225,7 +11475,7 @@
         <v>100</v>
       </c>
       <c r="C104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>138</v>
@@ -11341,10 +11591,10 @@
         <v>100</v>
       </c>
       <c r="L105" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M105" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N105">
         <v>50</v>
@@ -11398,10 +11648,10 @@
       <c r="BQ105" s="1"/>
       <c r="BR105" s="4"/>
       <c r="BS105" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BT105" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BU105" s="1"/>
       <c r="BV105" s="7"/>
@@ -11839,7 +12089,7 @@
       </c>
       <c r="K111" s="4"/>
       <c r="L111" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N111">
         <v>20</v>
@@ -11848,7 +12098,7 @@
         <v>1</v>
       </c>
       <c r="AF111" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AH111">
         <v>40</v>
@@ -11970,21 +12220,35 @@
         <v>109</v>
       </c>
       <c r="C113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="E113" s="1">
+        <v>50</v>
+      </c>
+      <c r="F113" s="1">
+        <v>8</v>
+      </c>
       <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
+      <c r="H113" s="1">
+        <v>12</v>
+      </c>
       <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="J113" s="1">
+        <v>1</v>
+      </c>
       <c r="K113" s="4"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
+      <c r="L113" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="N113" s="1">
+        <v>10</v>
+      </c>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -11993,15 +12257,21 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
-      <c r="W113" s="1"/>
+      <c r="W113" s="1">
+        <v>2</v>
+      </c>
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
       <c r="AC113" s="1"/>
-      <c r="AD113" s="1"/>
-      <c r="AE113" s="7"/>
+      <c r="AD113" s="1">
+        <v>36</v>
+      </c>
+      <c r="AE113" s="7">
+        <v>3</v>
+      </c>
       <c r="AF113" s="5"/>
       <c r="AG113" s="5"/>
       <c r="AH113" s="1"/>
@@ -12320,10 +12590,10 @@
       </c>
       <c r="K117" s="4"/>
       <c r="L117" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M117" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -12335,10 +12605,10 @@
         <v>5</v>
       </c>
       <c r="AF117" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AG117" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH117">
         <v>80</v>
@@ -12378,7 +12648,7 @@
         <v>114</v>
       </c>
       <c r="C118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>152</v>
@@ -12902,7 +13172,7 @@
         <v>120</v>
       </c>
       <c r="C124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>158</v>
@@ -12997,7 +13267,7 @@
         <v>121</v>
       </c>
       <c r="C125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>159</v>
@@ -13295,10 +13565,10 @@
       </c>
       <c r="K128" s="4"/>
       <c r="L128" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M128" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -13313,10 +13583,10 @@
         <v>10</v>
       </c>
       <c r="AF128" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AG128" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AH128">
         <v>20</v>
@@ -13381,10 +13651,10 @@
       </c>
       <c r="K129" s="4"/>
       <c r="L129" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M129" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N129">
         <v>10</v>
@@ -13399,10 +13669,10 @@
         <v>2</v>
       </c>
       <c r="AF129" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AG129" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AH129">
         <v>30</v>
@@ -13469,7 +13739,7 @@
       </c>
       <c r="K130" s="4"/>
       <c r="L130" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M130" s="1"/>
       <c r="N130" s="1">
@@ -13498,7 +13768,7 @@
         <v>201</v>
       </c>
       <c r="AG130" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AH130" s="1">
         <v>50</v>
@@ -13766,10 +14036,10 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="7"/>
       <c r="AF133" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AG133" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AH133" s="1">
         <v>0</v>
@@ -13850,7 +14120,7 @@
         <v>129</v>
       </c>
       <c r="L134" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N134">
         <v>50</v>
@@ -13859,10 +14129,10 @@
         <v>3</v>
       </c>
       <c r="AF134" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG134" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AH134">
         <v>40</v>
@@ -14420,10 +14690,10 @@
       </c>
       <c r="K141" s="4"/>
       <c r="L141" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N141" s="1">
         <v>0</v>
@@ -14450,10 +14720,10 @@
       </c>
       <c r="AE141" s="7"/>
       <c r="AF141" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG141" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AH141" s="1"/>
       <c r="AI141" s="1"/>
@@ -15096,10 +15366,10 @@
       </c>
       <c r="K149" s="4"/>
       <c r="L149" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M149" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N149">
         <v>60</v>
@@ -15117,10 +15387,10 @@
         <v>30</v>
       </c>
       <c r="AF149" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG149" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AH149">
         <v>100</v>
@@ -15214,7 +15484,7 @@
       </c>
       <c r="K151" s="4"/>
       <c r="L151" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N151">
         <v>10</v>
@@ -15272,7 +15542,7 @@
         <v>147</v>
       </c>
       <c r="L152" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M152" t="s">
         <v>267</v>
@@ -15290,10 +15560,10 @@
         <v>30</v>
       </c>
       <c r="AF152" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AG152" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AH152">
         <v>20</v>
@@ -15392,10 +15662,10 @@
       </c>
       <c r="K154" s="4"/>
       <c r="L154" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M154" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N154">
         <v>10</v>
@@ -15413,10 +15683,10 @@
         <v>-1</v>
       </c>
       <c r="AF154" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG154" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AH154">
         <v>0</v>
@@ -19258,10 +19528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19269,228 +19539,276 @@
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>0</v>
+      <c r="C2" s="18" t="s">
+        <v>346</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>1000</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>1001</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>1002</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>1003</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>1004</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>1005</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>1006</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>1007</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>1008</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>1009</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>9</v>
       </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>1010</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>1011</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>11</v>
       </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>1012</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>12</v>
       </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>1013</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>13</v>
       </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <v>1014</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="27">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D17" s="10">
+      <c r="E17" s="10">
         <v>14</v>
       </c>
-      <c r="E17" s="11">
+      <c r="F17" s="11">
         <v>1</v>
       </c>
     </row>
@@ -19504,7 +19822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -19521,7 +19839,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
@@ -19530,10 +19848,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>345</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -19544,10 +19862,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F3" s="6">
         <v>2000</v>
@@ -19562,10 +19880,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F4" s="6">
         <v>2001</v>
@@ -19580,10 +19898,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F5" s="6">
         <v>2002</v>
@@ -19598,10 +19916,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F6" s="6">
         <v>2003</v>
@@ -19616,10 +19934,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F7" s="6">
         <v>2004</v>
@@ -19634,10 +19952,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F8" s="6">
         <v>2005</v>
@@ -19652,10 +19970,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F9" s="6">
         <v>2006</v>
@@ -19670,10 +19988,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F10" s="6">
         <v>2007</v>
@@ -19688,10 +20006,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F11" s="6">
         <v>2008</v>
@@ -19706,10 +20024,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F12" s="6">
         <v>2009</v>
@@ -19724,10 +20042,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F13" s="6">
         <v>2010</v>
@@ -19742,10 +20060,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F14" s="6">
         <v>2011</v>
@@ -19760,10 +20078,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F15" s="6">
         <v>2012</v>
@@ -19778,10 +20096,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F16" s="6">
         <v>2013</v>
@@ -19796,10 +20114,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F17" s="6">
         <v>2014</v>
@@ -19814,10 +20132,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F18" s="6">
         <v>2015</v>
@@ -19832,10 +20150,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F19" s="6">
         <v>2016</v>
@@ -19850,10 +20168,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F20" s="6">
         <v>2017</v>
@@ -19868,10 +20186,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F21" s="6">
         <v>2018</v>
@@ -19886,10 +20204,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F22" s="6">
         <v>2019</v>
@@ -19904,10 +20222,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F23" s="6">
         <v>2020</v>
@@ -19922,10 +20240,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F24" s="6">
         <v>2021</v>
@@ -19940,10 +20258,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F25" s="6">
         <v>2022</v>
@@ -19958,10 +20276,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F26" s="6">
         <v>2023</v>
@@ -19976,10 +20294,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F27" s="6">
         <v>2024</v>
@@ -19994,10 +20312,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F28" s="6">
         <v>2025</v>
@@ -20286,10 +20604,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -9,17 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pokemon" sheetId="1" r:id="rId1"/>
     <sheet name="Energies" sheetId="3" r:id="rId2"/>
     <sheet name="Dresseurs" sheetId="4" r:id="rId3"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId4"/>
-    <sheet name="Feuil5" sheetId="5" r:id="rId5"/>
+    <sheet name="Gst des actions" sheetId="5" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="542">
   <si>
     <t>Nom</t>
   </si>
@@ -796,9 +795,6 @@
     <t>Défaussez une carte Énergie eau attachée à Staross pour pouvoir utiliser cette attaque. Retirez tous les marqueurs de dégâts sur Staross.</t>
   </si>
   <si>
-    <t>XX</t>
-  </si>
-  <si>
     <t>Etoile gelante</t>
   </si>
   <si>
@@ -1388,16 +1384,317 @@
   </si>
   <si>
     <t>Si le Pokémon Défenseur essaie d'attaquer pendant le prochain tour de votre adversaire, votre adversaire doit lancer une pièce. Si c'est pile, l'attaque reste sans effet.</t>
+  </si>
+  <si>
+    <t>Action_ChangeEnemyStatus = 1,       //Status to apply</t>
+  </si>
+  <si>
+    <t>Action_ChangeEnemyStatus_Random = 2,//Status to apply</t>
+  </si>
+  <si>
+    <t>Action_RemoveEnergyAttached = 3,    //Number of energy</t>
+  </si>
+  <si>
+    <t>Action_Healing = 4, //Quantity of heal</t>
+  </si>
+  <si>
+    <t>Action_ProtectedAgainstDamage = 5,</t>
+  </si>
+  <si>
+    <t>Action_MoreDamageByEnergy = 6,      //Quantity of damage per energy</t>
+  </si>
+  <si>
+    <t>Action_ReplicateOneAttackFromEnemy = 7,</t>
+  </si>
+  <si>
+    <t>Action_MoreDamageOnEnemyOrHimSelf = 8,      //Quantity of damage</t>
+  </si>
+  <si>
+    <t>Action_PoisonedCustom = 9,  //Quantity of damage per round</t>
+  </si>
+  <si>
+    <t>//Action_RandomDamageToHimself = 10,</t>
+  </si>
+  <si>
+    <t>Action_DamageMultipliedByDoubleHeadOrTail = 11,     //Quantity of damage</t>
+  </si>
+  <si>
+    <t>Action_DamageMultipliedByTripleHeadOrTail = 12,     //Quantity of damage</t>
+  </si>
+  <si>
+    <t>Action_HurtEveryPokemonOnOwnBench = 13,</t>
+  </si>
+  <si>
+    <t>Action_SwapPokemonBetweenFigthAndBench = 14,</t>
+  </si>
+  <si>
+    <t>Action_Destruction = 15,    //Quantity of damage for each pokemon in Bench</t>
+  </si>
+  <si>
+    <t>Action_MoreDamageByEnemyDamage = 16,</t>
+  </si>
+  <si>
+    <t>Action_HurtHimself = 17,    //Quantity of damage</t>
+  </si>
+  <si>
+    <t>Action_HurtHimself_Random = 18,     //Quantity of damage</t>
+  </si>
+  <si>
+    <t>Action_CompleteProtectionByPayingOneEnergy = 19,//Type of energy</t>
+  </si>
+  <si>
+    <t>Action_RemoveAllEnergiesAttached = 20,</t>
+  </si>
+  <si>
+    <t>Action_RemoveOneEnergyOnEnemy = 21, //Type of energy</t>
+  </si>
+  <si>
+    <t>Action_ReplicateLastAttackToEnemy = 22,</t>
+  </si>
+  <si>
+    <t>//Action_HurtHimself = 23,    //Quantity of damage</t>
+  </si>
+  <si>
+    <t>Action_UniqueAttack = 24,</t>
+  </si>
+  <si>
+    <t>Action_AttackIfEnemyIsSleeping = 25,//Quantity of damage</t>
+  </si>
+  <si>
+    <t>Action_FullHealingByPayingOneEnergy = 26,   //Type of energy</t>
+  </si>
+  <si>
+    <t>Action_AttackLessDamageOnHimself = 27,      //Orignal damage</t>
+  </si>
+  <si>
+    <t>Action_MoreDamageByOwnDamage = 28,  //Quantity of damage</t>
+  </si>
+  <si>
+    <t>Action_BlockOneEnemyAttackForOneTurn = 29,</t>
+  </si>
+  <si>
+    <t>Action_ChangeWeaknessOfEnemy = 30,</t>
+  </si>
+  <si>
+    <t>Action_ChangeResistanceOfHimself = 31,</t>
+  </si>
+  <si>
+    <t>Action_DamageOfHalfEnemyLifeLeft = 32,</t>
+  </si>
+  <si>
+    <t>Action_DamageOnlyIfEnemyIsSpleeping = 33,    //Quantity of damage</t>
+  </si>
+  <si>
+    <t>Action_ProtectedAgainstDamageRandom = 34,</t>
+  </si>
+  <si>
+    <t>Action_EnemyDieIfYouDieInNextTurn = 35,</t>
+  </si>
+  <si>
+    <t>Action_ChangeEnemyStatusOnHeadOrEnemyIsConfused = 36,//Status to apply</t>
+  </si>
+  <si>
+    <t>Action_CanAttack_Random = 37,       //Quantity of damage</t>
+  </si>
+  <si>
+    <t>Action_NoDamageOnThreshold = 38,    //Limit of damage</t>
+  </si>
+  <si>
+    <t>Action_EnemyCanAttackOnNextTurn_Random = 39,</t>
+  </si>
+  <si>
+    <r>
+      <t>Action_None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve"> = 0,</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_None </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_ChangeEnemyStatus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_ChangeEnemyStatus_Random </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_RemoveEnergyAttached </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_Healing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_ProtectedAgainstDamage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_MoreDamageByEnergy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_ReplicateOneAttackFromEnemy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_MoreDamageOnEnemyOrHimSelf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_PoisonedCustom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//Action_RandomDamageToHimself </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_DamageMultipliedByDoubleHeadOrTail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_DamageMultipliedByTripleHeadOrTail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_HurtEveryPokemonOnOwnBench </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_SwapPokemonBetweenFigthAndBench </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_MoreDamageByEnemyDamage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_HurtHimself </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_HurtHimself_Random </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_CompleteProtectionByPayingOneEnergy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_RemoveAllEnergiesAttached </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_RemoveOneEnergyOnEnemy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_ReplicateLastAttackToEnemy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//Action_HurtHimself </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_UniqueAttack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_AttackIfEnemyIsSleeping </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_FullHealingByPayingOneEnergy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_AttackLessDamageOnHimself </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_MoreDamageByOwnDamage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_BlockOneEnemyAttackForOneTurn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_ChangeWeaknessOfEnemy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_ChangeResistanceOfHimself </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_DamageOfHalfEnemyLifeLeft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_ProtectedAgainstDamageRandom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_EnemyDieIfYouDieInNextTurn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_ChangeEnemyStatusOnHeadOrEnemyIsConfused </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_CanAttack_Random </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_NoDamageOnThreshold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_EnemyCanAttackOnNextTurn_Random </t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>ENERGIES</t>
+  </si>
+  <si>
+    <t>SOIN</t>
+  </si>
+  <si>
+    <t>PROTECTION</t>
+  </si>
+  <si>
+    <t>ATTAQUES</t>
+  </si>
+  <si>
+    <t>BLESSURES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_MoreDamageOrHurtHimSelf </t>
+  </si>
+  <si>
+    <t>BANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//Action_Destruction </t>
+  </si>
+  <si>
+    <t>GESTION DES DEGATS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//Action_DamageOnlyIfEnemyIsSpleeping </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1630,7 +1927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1650,6 +1947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1674,7 +1972,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1957,12 +2263,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BV204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AX154" sqref="AX154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
@@ -1979,187 +2285,187 @@
     <col min="72" max="72" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:74" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:74" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:74">
+      <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="22" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="26" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="22" t="s">
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="23"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="23"/>
-      <c r="BK2" s="23"/>
-      <c r="BL2" s="23"/>
-      <c r="BM2" s="23"/>
-      <c r="BN2" s="23"/>
-      <c r="BO2" s="23"/>
-      <c r="BP2" s="23"/>
-      <c r="BQ2" s="23"/>
-      <c r="BR2" s="24"/>
-      <c r="BS2" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="21"/>
-    </row>
-    <row r="3" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
+      <c r="BG2" s="24"/>
+      <c r="BH2" s="24"/>
+      <c r="BI2" s="24"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="24"/>
+      <c r="BL2" s="24"/>
+      <c r="BM2" s="24"/>
+      <c r="BN2" s="24"/>
+      <c r="BO2" s="24"/>
+      <c r="BP2" s="24"/>
+      <c r="BQ2" s="24"/>
+      <c r="BR2" s="25"/>
+      <c r="BS2" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="BT2" s="21"/>
+      <c r="BU2" s="21"/>
+      <c r="BV2" s="22"/>
+    </row>
+    <row r="3" spans="2:74">
+      <c r="B3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="6"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23" t="s">
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="25"/>
+      <c r="AE3" s="26"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
-      <c r="AL3" s="23" t="s">
+      <c r="AL3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="23"/>
-      <c r="AR3" s="23"/>
-      <c r="AS3" s="23"/>
-      <c r="AT3" s="23"/>
-      <c r="AU3" s="23"/>
-      <c r="AV3" s="23"/>
-      <c r="AW3" s="23"/>
-      <c r="AX3" s="23" t="s">
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AY3" s="24"/>
+      <c r="AY3" s="25"/>
       <c r="AZ3" s="6"/>
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
-      <c r="BE3" s="23" t="s">
+      <c r="BE3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="BF3" s="23"/>
-      <c r="BG3" s="23"/>
-      <c r="BH3" s="23"/>
-      <c r="BI3" s="23"/>
-      <c r="BJ3" s="23"/>
-      <c r="BK3" s="23"/>
-      <c r="BL3" s="23"/>
-      <c r="BM3" s="23"/>
-      <c r="BN3" s="23"/>
-      <c r="BO3" s="23"/>
-      <c r="BP3" s="23"/>
-      <c r="BQ3" s="23" t="s">
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="24"/>
+      <c r="BH3" s="24"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="24"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="24"/>
+      <c r="BM3" s="24"/>
+      <c r="BN3" s="24"/>
+      <c r="BO3" s="24"/>
+      <c r="BP3" s="24"/>
+      <c r="BQ3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="BR3" s="24"/>
+      <c r="BR3" s="25"/>
       <c r="BS3" s="6"/>
       <c r="BT3" s="1"/>
       <c r="BU3" s="1"/>
       <c r="BV3" s="7"/>
     </row>
-    <row r="4" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:74">
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -2375,7 +2681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:74">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -2476,7 +2782,7 @@
       <c r="BU5" s="1"/>
       <c r="BV5" s="7"/>
     </row>
-    <row r="6" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:74">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -2589,7 +2895,7 @@
       <c r="BU6" s="1"/>
       <c r="BV6" s="7"/>
     </row>
-    <row r="7" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:74">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -2684,15 +2990,15 @@
       <c r="BQ7" s="1"/>
       <c r="BR7" s="4"/>
       <c r="BS7" t="s">
+        <v>259</v>
+      </c>
+      <c r="BT7" t="s">
         <v>260</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>261</v>
       </c>
       <c r="BU7" s="1"/>
       <c r="BV7" s="7"/>
     </row>
-    <row r="8" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:74">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -2800,7 +3106,7 @@
       <c r="BU8" s="1"/>
       <c r="BV8" s="7"/>
     </row>
-    <row r="9" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:74">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -2911,7 +3217,7 @@
       <c r="BU9" s="1"/>
       <c r="BV9" s="7"/>
     </row>
-    <row r="10" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:74">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -3012,15 +3318,15 @@
       <c r="BQ10" s="1"/>
       <c r="BR10" s="4"/>
       <c r="BS10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BT10" t="s">
         <v>262</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>263</v>
       </c>
       <c r="BU10" s="1"/>
       <c r="BV10" s="7"/>
     </row>
-    <row r="11" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:74">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -3133,7 +3439,7 @@
       <c r="BU11" s="1"/>
       <c r="BV11" s="7"/>
     </row>
-    <row r="12" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:74">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -3244,7 +3550,7 @@
       <c r="BU12" s="1"/>
       <c r="BV12" s="7"/>
     </row>
-    <row r="13" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:74">
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -3341,15 +3647,15 @@
       <c r="BQ13" s="1"/>
       <c r="BR13" s="4"/>
       <c r="BS13" t="s">
+        <v>263</v>
+      </c>
+      <c r="BT13" t="s">
         <v>264</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>265</v>
       </c>
       <c r="BU13" s="1"/>
       <c r="BV13" s="7"/>
     </row>
-    <row r="14" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:74">
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -3452,7 +3758,7 @@
       <c r="BU14" s="1"/>
       <c r="BV14" s="7"/>
     </row>
-    <row r="15" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:74">
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -3565,7 +3871,7 @@
       <c r="BU15" s="1"/>
       <c r="BV15" s="7"/>
     </row>
-    <row r="16" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:74">
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -3648,7 +3954,7 @@
       <c r="BU16" s="1"/>
       <c r="BV16" s="7"/>
     </row>
-    <row r="17" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:74">
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -3751,7 +4057,7 @@
       <c r="BU17" s="1"/>
       <c r="BV17" s="7"/>
     </row>
-    <row r="18" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:74">
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -3784,7 +4090,7 @@
         <v>218</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -3814,7 +4120,7 @@
         <v>208</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH18" s="1">
         <v>20</v>
@@ -3866,7 +4172,7 @@
       <c r="BU18" s="1"/>
       <c r="BV18" s="7"/>
     </row>
-    <row r="19" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:74">
       <c r="B19" s="1">
         <v>15</v>
       </c>
@@ -3895,10 +4201,10 @@
         <v>14</v>
       </c>
       <c r="L19" t="s">
+        <v>265</v>
+      </c>
+      <c r="M19" t="s">
         <v>266</v>
-      </c>
-      <c r="M19" t="s">
-        <v>267</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -3916,7 +4222,7 @@
         <v>246</v>
       </c>
       <c r="AG19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH19">
         <v>40</v>
@@ -3954,7 +4260,7 @@
       <c r="BU19" s="1"/>
       <c r="BV19" s="7"/>
     </row>
-    <row r="20" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:74">
       <c r="B20" s="1">
         <v>16</v>
       </c>
@@ -3984,10 +4290,10 @@
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N20" s="1">
         <v>10</v>
@@ -4057,7 +4363,7 @@
       <c r="BU20" s="1"/>
       <c r="BV20" s="7"/>
     </row>
-    <row r="21" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:74">
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -4089,10 +4395,10 @@
         <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N21">
         <v>10</v>
@@ -4104,10 +4410,10 @@
         <v>14</v>
       </c>
       <c r="AF21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG21" t="s">
         <v>270</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>271</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -4142,7 +4448,7 @@
       <c r="BU21" s="1"/>
       <c r="BV21" s="7"/>
     </row>
-    <row r="22" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:74">
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -4229,7 +4535,7 @@
       <c r="BU22" s="1"/>
       <c r="BV22" s="7"/>
     </row>
-    <row r="23" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:74">
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -4324,7 +4630,7 @@
       <c r="BU23" s="1"/>
       <c r="BV23" s="7"/>
     </row>
-    <row r="24" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:74">
       <c r="B24" s="1">
         <v>20</v>
       </c>
@@ -4380,10 +4686,10 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="7"/>
       <c r="AF24" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="AG24" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="AG24" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="AH24" s="1">
         <v>0</v>
@@ -4433,7 +4739,7 @@
       <c r="BU24" s="1"/>
       <c r="BV24" s="7"/>
     </row>
-    <row r="25" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:74">
       <c r="B25" s="1">
         <v>21</v>
       </c>
@@ -4518,7 +4824,7 @@
       <c r="BU25" s="1"/>
       <c r="BV25" s="7"/>
     </row>
-    <row r="26" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:74">
       <c r="B26" s="1">
         <v>22</v>
       </c>
@@ -4605,7 +4911,7 @@
       <c r="BU26" s="1"/>
       <c r="BV26" s="7"/>
     </row>
-    <row r="27" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:74">
       <c r="B27" s="1">
         <v>23</v>
       </c>
@@ -4686,7 +4992,7 @@
       <c r="BU27" s="1"/>
       <c r="BV27" s="7"/>
     </row>
-    <row r="28" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:74">
       <c r="B28" s="1">
         <v>24</v>
       </c>
@@ -4769,7 +5075,7 @@
       <c r="BU28" s="1"/>
       <c r="BV28" s="7"/>
     </row>
-    <row r="29" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:74">
       <c r="B29" s="1">
         <v>25</v>
       </c>
@@ -4795,7 +5101,7 @@
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1">
@@ -4821,10 +5127,10 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="AG29" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="AG29" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="AH29" s="1">
         <v>30</v>
@@ -4849,7 +5155,7 @@
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AY29" s="4">
         <v>10</v>
@@ -4878,7 +5184,7 @@
       <c r="BU29" s="1"/>
       <c r="BV29" s="7"/>
     </row>
-    <row r="30" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:74">
       <c r="B30" s="1">
         <v>26</v>
       </c>
@@ -4904,10 +5210,10 @@
         <v>25</v>
       </c>
       <c r="L30" t="s">
+        <v>271</v>
+      </c>
+      <c r="M30" t="s">
         <v>272</v>
-      </c>
-      <c r="M30" t="s">
-        <v>273</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -4922,10 +5228,10 @@
         <v>5</v>
       </c>
       <c r="AF30" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG30" t="s">
         <v>274</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>275</v>
       </c>
       <c r="AH30">
         <v>60</v>
@@ -4937,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="AX30">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AY30">
         <v>30</v>
@@ -4966,7 +5272,7 @@
       <c r="BU30" s="1"/>
       <c r="BV30" s="7"/>
     </row>
-    <row r="31" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:74">
       <c r="B31" s="1">
         <v>27</v>
       </c>
@@ -4994,10 +5300,10 @@
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="N31" s="1">
         <v>10</v>
@@ -5067,7 +5373,7 @@
       <c r="BU31" s="1"/>
       <c r="BV31" s="7"/>
     </row>
-    <row r="32" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:74">
       <c r="B32" s="1">
         <v>28</v>
       </c>
@@ -5150,7 +5456,7 @@
       <c r="BU32" s="1"/>
       <c r="BV32" s="7"/>
     </row>
-    <row r="33" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:74">
       <c r="B33" s="1">
         <v>29</v>
       </c>
@@ -5231,7 +5537,7 @@
       <c r="BU33" s="1"/>
       <c r="BV33" s="7"/>
     </row>
-    <row r="34" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:74">
       <c r="B34" s="1">
         <v>30</v>
       </c>
@@ -5314,7 +5620,7 @@
       <c r="BU34" s="1"/>
       <c r="BV34" s="7"/>
     </row>
-    <row r="35" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:74">
       <c r="B35" s="1">
         <v>31</v>
       </c>
@@ -5397,7 +5703,7 @@
       <c r="BU35" s="1"/>
       <c r="BV35" s="7"/>
     </row>
-    <row r="36" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:74">
       <c r="B36" s="1">
         <v>32</v>
       </c>
@@ -5423,10 +5729,10 @@
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="N36" s="1">
         <v>0</v>
@@ -5498,7 +5804,7 @@
       <c r="BU36" s="1"/>
       <c r="BV36" s="7"/>
     </row>
-    <row r="37" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:74">
       <c r="B37" s="1">
         <v>33</v>
       </c>
@@ -5526,10 +5832,10 @@
         <v>32</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N37" s="1">
         <v>0</v>
@@ -5560,7 +5866,7 @@
         <v>30</v>
       </c>
       <c r="AF37" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG37" s="5"/>
       <c r="AH37" s="1">
@@ -5611,7 +5917,7 @@
       <c r="BU37" s="1"/>
       <c r="BV37" s="7"/>
     </row>
-    <row r="38" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:74">
       <c r="B38" s="1">
         <v>34</v>
       </c>
@@ -5637,10 +5943,10 @@
         <v>33</v>
       </c>
       <c r="L38" t="s">
+        <v>275</v>
+      </c>
+      <c r="M38" t="s">
         <v>276</v>
-      </c>
-      <c r="M38" t="s">
-        <v>277</v>
       </c>
       <c r="N38">
         <v>30</v>
@@ -5658,10 +5964,10 @@
         <v>10</v>
       </c>
       <c r="AF38" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG38" t="s">
         <v>278</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>279</v>
       </c>
       <c r="AH38">
         <v>20</v>
@@ -5699,7 +6005,7 @@
       <c r="BU38" s="1"/>
       <c r="BV38" s="7"/>
     </row>
-    <row r="39" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:74">
       <c r="B39" s="1">
         <v>35</v>
       </c>
@@ -5726,10 +6032,10 @@
       </c>
       <c r="K39" s="4"/>
       <c r="L39" t="s">
+        <v>279</v>
+      </c>
+      <c r="M39" t="s">
         <v>280</v>
-      </c>
-      <c r="M39" t="s">
-        <v>281</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -5744,10 +6050,10 @@
         <v>4</v>
       </c>
       <c r="AF39" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG39" t="s">
         <v>282</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>283</v>
       </c>
       <c r="AH39">
         <v>0</v>
@@ -5782,7 +6088,7 @@
       <c r="BU39" s="1"/>
       <c r="BV39" s="7"/>
     </row>
-    <row r="40" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:74">
       <c r="B40" s="1">
         <v>36</v>
       </c>
@@ -5865,7 +6171,7 @@
       <c r="BU40" s="1"/>
       <c r="BV40" s="7"/>
     </row>
-    <row r="41" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:74">
       <c r="B41" s="1">
         <v>37</v>
       </c>
@@ -5966,7 +6272,7 @@
       <c r="BU41" s="1"/>
       <c r="BV41" s="7"/>
     </row>
-    <row r="42" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:74">
       <c r="B42" s="1">
         <v>38</v>
       </c>
@@ -5992,10 +6298,10 @@
         <v>37</v>
       </c>
       <c r="L42" t="s">
+        <v>283</v>
+      </c>
+      <c r="M42" t="s">
         <v>284</v>
-      </c>
-      <c r="M42" t="s">
-        <v>285</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -6007,10 +6313,10 @@
         <v>14</v>
       </c>
       <c r="AF42" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG42" t="s">
         <v>286</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>287</v>
       </c>
       <c r="AH42">
         <v>80</v>
@@ -6048,7 +6354,7 @@
       <c r="BU42" s="1"/>
       <c r="BV42" s="7"/>
     </row>
-    <row r="43" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:74">
       <c r="B43" s="1">
         <v>39</v>
       </c>
@@ -6129,7 +6435,7 @@
       <c r="BU43" s="1"/>
       <c r="BV43" s="7"/>
     </row>
-    <row r="44" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:74">
       <c r="B44" s="1">
         <v>40</v>
       </c>
@@ -6212,7 +6518,7 @@
       <c r="BU44" s="1"/>
       <c r="BV44" s="7"/>
     </row>
-    <row r="45" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:74">
       <c r="B45" s="1">
         <v>41</v>
       </c>
@@ -6293,7 +6599,7 @@
       <c r="BU45" s="1"/>
       <c r="BV45" s="7"/>
     </row>
-    <row r="46" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:74">
       <c r="B46" s="1">
         <v>42</v>
       </c>
@@ -6376,7 +6682,7 @@
       <c r="BU46" s="1"/>
       <c r="BV46" s="7"/>
     </row>
-    <row r="47" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:74">
       <c r="B47" s="1">
         <v>43</v>
       </c>
@@ -6457,7 +6763,7 @@
       <c r="BU47" s="1"/>
       <c r="BV47" s="7"/>
     </row>
-    <row r="48" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:74">
       <c r="B48" s="1">
         <v>44</v>
       </c>
@@ -6540,7 +6846,7 @@
       <c r="BU48" s="1"/>
       <c r="BV48" s="7"/>
     </row>
-    <row r="49" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:74">
       <c r="B49" s="1">
         <v>45</v>
       </c>
@@ -6623,7 +6929,7 @@
       <c r="BU49" s="1"/>
       <c r="BV49" s="7"/>
     </row>
-    <row r="50" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:74">
       <c r="B50" s="1">
         <v>46</v>
       </c>
@@ -6704,7 +7010,7 @@
       <c r="BU50" s="1"/>
       <c r="BV50" s="7"/>
     </row>
-    <row r="51" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:74">
       <c r="B51" s="1">
         <v>47</v>
       </c>
@@ -6787,7 +7093,7 @@
       <c r="BU51" s="1"/>
       <c r="BV51" s="7"/>
     </row>
-    <row r="52" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:74">
       <c r="B52" s="1">
         <v>48</v>
       </c>
@@ -6868,7 +7174,7 @@
       <c r="BU52" s="1"/>
       <c r="BV52" s="7"/>
     </row>
-    <row r="53" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:74">
       <c r="B53" s="1">
         <v>49</v>
       </c>
@@ -6951,7 +7257,7 @@
       <c r="BU53" s="1"/>
       <c r="BV53" s="7"/>
     </row>
-    <row r="54" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:74">
       <c r="B54" s="1">
         <v>50</v>
       </c>
@@ -6979,7 +7285,7 @@
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1">
@@ -7005,7 +7311,7 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="7"/>
       <c r="AF54" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG54" s="5"/>
       <c r="AH54" s="1">
@@ -7054,7 +7360,7 @@
       <c r="BU54" s="1"/>
       <c r="BV54" s="7"/>
     </row>
-    <row r="55" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:74">
       <c r="B55" s="1">
         <v>51</v>
       </c>
@@ -7095,10 +7401,10 @@
         <v>1</v>
       </c>
       <c r="AF55" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG55" t="s">
         <v>288</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>289</v>
       </c>
       <c r="AH55">
         <v>70</v>
@@ -7136,7 +7442,7 @@
       <c r="BU55" s="1"/>
       <c r="BV55" s="7"/>
     </row>
-    <row r="56" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:74">
       <c r="B56" s="1">
         <v>52</v>
       </c>
@@ -7217,7 +7523,7 @@
       <c r="BU56" s="1"/>
       <c r="BV56" s="7"/>
     </row>
-    <row r="57" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:74">
       <c r="B57" s="1">
         <v>53</v>
       </c>
@@ -7300,7 +7606,7 @@
       <c r="BU57" s="1"/>
       <c r="BV57" s="7"/>
     </row>
-    <row r="58" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:74">
       <c r="B58" s="1">
         <v>54</v>
       </c>
@@ -7381,7 +7687,7 @@
       <c r="BU58" s="1"/>
       <c r="BV58" s="7"/>
     </row>
-    <row r="59" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:74">
       <c r="B59" s="1">
         <v>55</v>
       </c>
@@ -7464,7 +7770,7 @@
       <c r="BU59" s="1"/>
       <c r="BV59" s="7"/>
     </row>
-    <row r="60" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:74">
       <c r="B60" s="1">
         <v>56</v>
       </c>
@@ -7545,7 +7851,7 @@
       <c r="BU60" s="1"/>
       <c r="BV60" s="7"/>
     </row>
-    <row r="61" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:74">
       <c r="B61" s="1">
         <v>57</v>
       </c>
@@ -7628,7 +7934,7 @@
       <c r="BU61" s="1"/>
       <c r="BV61" s="7"/>
     </row>
-    <row r="62" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:74">
       <c r="B62" s="1">
         <v>58</v>
       </c>
@@ -7652,7 +7958,7 @@
       </c>
       <c r="K62" s="4"/>
       <c r="L62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N62">
         <v>20</v>
@@ -7707,7 +8013,7 @@
       <c r="BU62" s="1"/>
       <c r="BV62" s="7"/>
     </row>
-    <row r="63" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:74">
       <c r="B63" s="1">
         <v>59</v>
       </c>
@@ -7736,7 +8042,7 @@
         <v>201</v>
       </c>
       <c r="M63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N63">
         <v>50</v>
@@ -7754,10 +8060,10 @@
         <v>5</v>
       </c>
       <c r="AF63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG63" t="s">
         <v>292</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>293</v>
       </c>
       <c r="AH63">
         <v>80</v>
@@ -7769,7 +8075,7 @@
         <v>2</v>
       </c>
       <c r="AX63">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AY63">
         <v>30</v>
@@ -7798,7 +8104,7 @@
       <c r="BU63" s="1"/>
       <c r="BV63" s="7"/>
     </row>
-    <row r="64" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:74">
       <c r="B64" s="1">
         <v>60</v>
       </c>
@@ -7824,10 +8130,10 @@
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N64" s="1">
         <v>30</v>
@@ -7899,7 +8205,7 @@
       <c r="BU64" s="1"/>
       <c r="BV64" s="7"/>
     </row>
-    <row r="65" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:74">
       <c r="B65" s="1">
         <v>61</v>
       </c>
@@ -7927,10 +8233,10 @@
         <v>60</v>
       </c>
       <c r="L65" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="N65" s="1">
         <v>0</v>
@@ -7957,10 +8263,10 @@
       </c>
       <c r="AE65" s="7"/>
       <c r="AF65" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG65" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AH65" s="1">
         <v>0</v>
@@ -8014,7 +8320,7 @@
       <c r="BU65" s="1"/>
       <c r="BV65" s="7"/>
     </row>
-    <row r="66" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:74">
       <c r="B66" s="1">
         <v>62</v>
       </c>
@@ -8040,10 +8346,10 @@
         <v>61</v>
       </c>
       <c r="L66" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M66" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N66">
         <v>30</v>
@@ -8061,10 +8367,10 @@
         <v>10</v>
       </c>
       <c r="AF66" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG66" t="s">
         <v>295</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>296</v>
       </c>
       <c r="AH66">
         <v>40</v>
@@ -8105,7 +8411,7 @@
       <c r="BU66" s="1"/>
       <c r="BV66" s="7"/>
     </row>
-    <row r="67" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:74">
       <c r="B67" s="1">
         <v>63</v>
       </c>
@@ -8131,10 +8437,10 @@
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N67" s="1">
         <v>10</v>
@@ -8206,7 +8512,7 @@
       <c r="BU67" s="1"/>
       <c r="BV67" s="7"/>
     </row>
-    <row r="68" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:74">
       <c r="B68" s="1">
         <v>64</v>
       </c>
@@ -8237,7 +8543,7 @@
         <v>253</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N68" s="1">
         <v>0</v>
@@ -8266,7 +8572,7 @@
         <v>12</v>
       </c>
       <c r="AF68" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG68" s="5"/>
       <c r="AH68" s="1">
@@ -8317,7 +8623,7 @@
       <c r="BU68" s="1"/>
       <c r="BV68" s="7"/>
     </row>
-    <row r="69" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:74">
       <c r="B69" s="1">
         <v>65</v>
       </c>
@@ -8416,15 +8722,15 @@
       <c r="BQ69" s="1"/>
       <c r="BR69" s="4"/>
       <c r="BS69" t="s">
+        <v>296</v>
+      </c>
+      <c r="BT69" t="s">
         <v>297</v>
-      </c>
-      <c r="BT69" t="s">
-        <v>298</v>
       </c>
       <c r="BU69" s="1"/>
       <c r="BV69" s="7"/>
     </row>
-    <row r="70" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:74">
       <c r="B70" s="1">
         <v>66</v>
       </c>
@@ -8450,7 +8756,7 @@
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1">
@@ -8519,7 +8825,7 @@
       <c r="BU70" s="1"/>
       <c r="BV70" s="7"/>
     </row>
-    <row r="71" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:74">
       <c r="B71" s="1">
         <v>67</v>
       </c>
@@ -8547,10 +8853,10 @@
         <v>66</v>
       </c>
       <c r="L71" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="M71" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="N71" s="1">
         <v>0</v>
@@ -8581,10 +8887,10 @@
         <v>50</v>
       </c>
       <c r="AF71" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG71" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="AG71" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="AH71" s="1">
         <v>60</v>
@@ -8609,7 +8915,7 @@
       <c r="AV71" s="1"/>
       <c r="AW71" s="1"/>
       <c r="AX71" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AY71" s="4">
         <v>20</v>
@@ -8638,7 +8944,7 @@
       <c r="BU71" s="1"/>
       <c r="BV71" s="7"/>
     </row>
-    <row r="72" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:74">
       <c r="B72" s="1">
         <v>68</v>
       </c>
@@ -8664,7 +8970,7 @@
         <v>67</v>
       </c>
       <c r="L72" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N72">
         <v>60</v>
@@ -8715,15 +9021,15 @@
       <c r="BQ72" s="1"/>
       <c r="BR72" s="4"/>
       <c r="BS72" t="s">
+        <v>298</v>
+      </c>
+      <c r="BT72" t="s">
         <v>299</v>
-      </c>
-      <c r="BT72" t="s">
-        <v>300</v>
       </c>
       <c r="BU72" s="1"/>
       <c r="BV72" s="7"/>
     </row>
-    <row r="73" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:74">
       <c r="B73" s="1">
         <v>69</v>
       </c>
@@ -8804,7 +9110,7 @@
       <c r="BU73" s="1"/>
       <c r="BV73" s="7"/>
     </row>
-    <row r="74" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:74">
       <c r="B74" s="1">
         <v>70</v>
       </c>
@@ -8887,7 +9193,7 @@
       <c r="BU74" s="1"/>
       <c r="BV74" s="7"/>
     </row>
-    <row r="75" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:74">
       <c r="B75" s="1">
         <v>71</v>
       </c>
@@ -8970,7 +9276,7 @@
       <c r="BU75" s="1"/>
       <c r="BV75" s="7"/>
     </row>
-    <row r="76" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:74">
       <c r="B76" s="1">
         <v>72</v>
       </c>
@@ -9051,7 +9357,7 @@
       <c r="BU76" s="1"/>
       <c r="BV76" s="7"/>
     </row>
-    <row r="77" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:74">
       <c r="B77" s="1">
         <v>73</v>
       </c>
@@ -9134,7 +9440,7 @@
       <c r="BU77" s="1"/>
       <c r="BV77" s="7"/>
     </row>
-    <row r="78" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:74">
       <c r="B78" s="1">
         <v>74</v>
       </c>
@@ -9215,7 +9521,7 @@
       <c r="BU78" s="1"/>
       <c r="BV78" s="7"/>
     </row>
-    <row r="79" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:74">
       <c r="B79" s="1">
         <v>75</v>
       </c>
@@ -9298,7 +9604,7 @@
       <c r="BU79" s="1"/>
       <c r="BV79" s="7"/>
     </row>
-    <row r="80" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:74">
       <c r="B80" s="1">
         <v>76</v>
       </c>
@@ -9381,7 +9687,7 @@
       <c r="BU80" s="1"/>
       <c r="BV80" s="7"/>
     </row>
-    <row r="81" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:74">
       <c r="B81" s="1">
         <v>77</v>
       </c>
@@ -9407,7 +9713,7 @@
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1">
@@ -9433,7 +9739,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="7"/>
       <c r="AF81" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG81" s="5"/>
       <c r="AH81" s="1">
@@ -9482,7 +9788,7 @@
       <c r="BU81" s="1"/>
       <c r="BV81" s="7"/>
     </row>
-    <row r="82" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:74">
       <c r="B82" s="1">
         <v>78</v>
       </c>
@@ -9565,7 +9871,7 @@
       <c r="BU82" s="1"/>
       <c r="BV82" s="7"/>
     </row>
-    <row r="83" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:74">
       <c r="B83" s="1">
         <v>79</v>
       </c>
@@ -9646,7 +9952,7 @@
       <c r="BU83" s="1"/>
       <c r="BV83" s="7"/>
     </row>
-    <row r="84" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:74">
       <c r="B84" s="1">
         <v>80</v>
       </c>
@@ -9729,7 +10035,7 @@
       <c r="BU84" s="1"/>
       <c r="BV84" s="7"/>
     </row>
-    <row r="85" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:74">
       <c r="B85" s="1">
         <v>81</v>
       </c>
@@ -9755,10 +10061,10 @@
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="M85" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="N85" s="1">
         <v>10</v>
@@ -9787,10 +10093,10 @@
         <v>2</v>
       </c>
       <c r="AF85" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG85" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AH85" s="1">
         <v>40</v>
@@ -9844,7 +10150,7 @@
       <c r="BU85" s="1"/>
       <c r="BV85" s="7"/>
     </row>
-    <row r="86" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:74">
       <c r="B86" s="1">
         <v>82</v>
       </c>
@@ -9870,10 +10176,10 @@
         <v>81</v>
       </c>
       <c r="L86" t="s">
+        <v>301</v>
+      </c>
+      <c r="M86" t="s">
         <v>302</v>
-      </c>
-      <c r="M86" t="s">
-        <v>303</v>
       </c>
       <c r="N86">
         <v>30</v>
@@ -9891,10 +10197,10 @@
         <v>2</v>
       </c>
       <c r="AF86" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG86" t="s">
         <v>304</v>
-      </c>
-      <c r="AG86" t="s">
-        <v>305</v>
       </c>
       <c r="AH86">
         <v>80</v>
@@ -9935,7 +10241,7 @@
       <c r="BU86" s="1"/>
       <c r="BV86" s="7"/>
     </row>
-    <row r="87" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:74">
       <c r="B87" s="1">
         <v>83</v>
       </c>
@@ -9962,10 +10268,10 @@
       </c>
       <c r="K87" s="4"/>
       <c r="L87" t="s">
+        <v>305</v>
+      </c>
+      <c r="M87" t="s">
         <v>306</v>
-      </c>
-      <c r="M87" t="s">
-        <v>307</v>
       </c>
       <c r="N87">
         <v>30</v>
@@ -9977,7 +10283,7 @@
         <v>24</v>
       </c>
       <c r="AF87" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AH87">
         <v>30</v>
@@ -10009,7 +10315,7 @@
       <c r="BU87" s="1"/>
       <c r="BV87" s="7"/>
     </row>
-    <row r="88" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:74">
       <c r="B88" s="1">
         <v>84</v>
       </c>
@@ -10037,10 +10343,10 @@
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N88" s="1">
         <v>0</v>
@@ -10112,7 +10418,7 @@
       <c r="BU88" s="1"/>
       <c r="BV88" s="7"/>
     </row>
-    <row r="89" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:74">
       <c r="B89" s="1">
         <v>85</v>
       </c>
@@ -10195,7 +10501,7 @@
       <c r="BU89" s="1"/>
       <c r="BV89" s="7"/>
     </row>
-    <row r="90" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:74">
       <c r="B90" s="1">
         <v>86</v>
       </c>
@@ -10221,7 +10527,7 @@
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1">
@@ -10290,7 +10596,7 @@
       <c r="BU90" s="1"/>
       <c r="BV90" s="7"/>
     </row>
-    <row r="91" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:74">
       <c r="B91" s="1">
         <v>87</v>
       </c>
@@ -10316,7 +10622,7 @@
         <v>86</v>
       </c>
       <c r="L91" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N91">
         <v>30</v>
@@ -10328,10 +10634,10 @@
         <v>2</v>
       </c>
       <c r="AF91" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG91" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AH91">
         <v>50</v>
@@ -10372,7 +10678,7 @@
       <c r="BU91" s="1"/>
       <c r="BV91" s="7"/>
     </row>
-    <row r="92" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:74">
       <c r="B92" s="1">
         <v>88</v>
       </c>
@@ -10453,7 +10759,7 @@
       <c r="BU92" s="1"/>
       <c r="BV92" s="7"/>
     </row>
-    <row r="93" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:74">
       <c r="B93" s="1">
         <v>89</v>
       </c>
@@ -10536,7 +10842,7 @@
       <c r="BU93" s="1"/>
       <c r="BV93" s="7"/>
     </row>
-    <row r="94" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:74">
       <c r="B94" s="1">
         <v>90</v>
       </c>
@@ -10617,7 +10923,7 @@
       <c r="BU94" s="1"/>
       <c r="BV94" s="7"/>
     </row>
-    <row r="95" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:74">
       <c r="B95" s="1">
         <v>91</v>
       </c>
@@ -10700,7 +11006,7 @@
       <c r="BU95" s="1"/>
       <c r="BV95" s="7"/>
     </row>
-    <row r="96" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:74">
       <c r="B96" s="1">
         <v>92</v>
       </c>
@@ -10726,10 +11032,10 @@
       </c>
       <c r="K96" s="4"/>
       <c r="L96" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N96" s="1">
         <v>0</v>
@@ -10758,10 +11064,10 @@
         <v>4</v>
       </c>
       <c r="AF96" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG96" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="AG96" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="AH96" s="1">
         <v>0</v>
@@ -10813,7 +11119,7 @@
       <c r="BU96" s="1"/>
       <c r="BV96" s="7"/>
     </row>
-    <row r="97" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:74">
       <c r="B97" s="1">
         <v>93</v>
       </c>
@@ -10841,10 +11147,10 @@
         <v>92</v>
       </c>
       <c r="L97" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="M97" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="N97" s="1">
         <v>0</v>
@@ -10873,10 +11179,10 @@
         <v>4</v>
       </c>
       <c r="AF97" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="AG97" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="AG97" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="AH97" s="1">
         <v>0</v>
@@ -10928,7 +11234,7 @@
       <c r="BU97" s="1"/>
       <c r="BV97" s="7"/>
     </row>
-    <row r="98" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:74">
       <c r="B98" s="1">
         <v>94</v>
       </c>
@@ -11011,7 +11317,7 @@
       <c r="BU98" s="1"/>
       <c r="BV98" s="7"/>
     </row>
-    <row r="99" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:74">
       <c r="B99" s="1">
         <v>95</v>
       </c>
@@ -11037,7 +11343,7 @@
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M99" s="1"/>
       <c r="N99" s="1">
@@ -11066,7 +11372,7 @@
         <v>218</v>
       </c>
       <c r="AG99" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AH99" s="1">
         <v>0</v>
@@ -11118,7 +11424,7 @@
       <c r="BU99" s="1"/>
       <c r="BV99" s="7"/>
     </row>
-    <row r="100" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:74">
       <c r="B100" s="1">
         <v>96</v>
       </c>
@@ -11144,7 +11450,7 @@
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1">
@@ -11170,10 +11476,10 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="7"/>
       <c r="AF100" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG100" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="AG100" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="AH100" s="1">
         <v>0</v>
@@ -11223,7 +11529,7 @@
       <c r="BU100" s="1"/>
       <c r="BV100" s="7"/>
     </row>
-    <row r="101" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:74">
       <c r="B101" s="1">
         <v>97</v>
       </c>
@@ -11306,7 +11612,7 @@
       <c r="BU101" s="1"/>
       <c r="BV101" s="7"/>
     </row>
-    <row r="102" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:74">
       <c r="B102" s="1">
         <v>98</v>
       </c>
@@ -11387,7 +11693,7 @@
       <c r="BU102" s="1"/>
       <c r="BV102" s="7"/>
     </row>
-    <row r="103" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:74">
       <c r="B103" s="1">
         <v>99</v>
       </c>
@@ -11470,7 +11776,7 @@
       <c r="BU103" s="1"/>
       <c r="BV103" s="7"/>
     </row>
-    <row r="104" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:74">
       <c r="B104" s="1">
         <v>100</v>
       </c>
@@ -11565,7 +11871,7 @@
       <c r="BU104" s="1"/>
       <c r="BV104" s="7"/>
     </row>
-    <row r="105" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:74">
       <c r="B105" s="1">
         <v>101</v>
       </c>
@@ -11591,10 +11897,10 @@
         <v>100</v>
       </c>
       <c r="L105" t="s">
+        <v>312</v>
+      </c>
+      <c r="M105" t="s">
         <v>313</v>
-      </c>
-      <c r="M105" t="s">
-        <v>314</v>
       </c>
       <c r="N105">
         <v>50</v>
@@ -11648,15 +11954,15 @@
       <c r="BQ105" s="1"/>
       <c r="BR105" s="4"/>
       <c r="BS105" t="s">
+        <v>310</v>
+      </c>
+      <c r="BT105" t="s">
         <v>311</v>
-      </c>
-      <c r="BT105" t="s">
-        <v>312</v>
       </c>
       <c r="BU105" s="1"/>
       <c r="BV105" s="7"/>
     </row>
-    <row r="106" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:74">
       <c r="B106" s="1">
         <v>102</v>
       </c>
@@ -11737,7 +12043,7 @@
       <c r="BU106" s="1"/>
       <c r="BV106" s="7"/>
     </row>
-    <row r="107" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:74">
       <c r="B107" s="1">
         <v>103</v>
       </c>
@@ -11820,7 +12126,7 @@
       <c r="BU107" s="1"/>
       <c r="BV107" s="7"/>
     </row>
-    <row r="108" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:74">
       <c r="B108" s="1">
         <v>104</v>
       </c>
@@ -11901,7 +12207,7 @@
       <c r="BU108" s="1"/>
       <c r="BV108" s="7"/>
     </row>
-    <row r="109" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:74">
       <c r="B109" s="1">
         <v>105</v>
       </c>
@@ -11984,7 +12290,7 @@
       <c r="BU109" s="1"/>
       <c r="BV109" s="7"/>
     </row>
-    <row r="110" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:74">
       <c r="B110" s="1">
         <v>106</v>
       </c>
@@ -12065,7 +12371,7 @@
       <c r="BU110" s="1"/>
       <c r="BV110" s="7"/>
     </row>
-    <row r="111" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:74">
       <c r="B111" s="1">
         <v>107</v>
       </c>
@@ -12089,7 +12395,7 @@
       </c>
       <c r="K111" s="4"/>
       <c r="L111" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N111">
         <v>20</v>
@@ -12098,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="AF111" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AH111">
         <v>40</v>
@@ -12134,7 +12440,7 @@
       <c r="BU111" s="1"/>
       <c r="BV111" s="7"/>
     </row>
-    <row r="112" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:74">
       <c r="B112" s="1">
         <v>108</v>
       </c>
@@ -12215,7 +12521,7 @@
       <c r="BU112" s="1"/>
       <c r="BV112" s="7"/>
     </row>
-    <row r="113" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:74">
       <c r="B113" s="1">
         <v>109</v>
       </c>
@@ -12241,10 +12547,10 @@
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="M113" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="N113" s="1">
         <v>10</v>
@@ -12316,7 +12622,7 @@
       <c r="BU113" s="1"/>
       <c r="BV113" s="7"/>
     </row>
-    <row r="114" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:74">
       <c r="B114" s="1">
         <v>110</v>
       </c>
@@ -12399,7 +12705,7 @@
       <c r="BU114" s="1"/>
       <c r="BV114" s="7"/>
     </row>
-    <row r="115" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:74">
       <c r="B115" s="1">
         <v>111</v>
       </c>
@@ -12480,7 +12786,7 @@
       <c r="BU115" s="1"/>
       <c r="BV115" s="7"/>
     </row>
-    <row r="116" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:74">
       <c r="B116" s="1">
         <v>112</v>
       </c>
@@ -12563,7 +12869,7 @@
       <c r="BU116" s="1"/>
       <c r="BV116" s="7"/>
     </row>
-    <row r="117" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:74">
       <c r="B117" s="1">
         <v>113</v>
       </c>
@@ -12590,10 +12896,10 @@
       </c>
       <c r="K117" s="4"/>
       <c r="L117" t="s">
+        <v>316</v>
+      </c>
+      <c r="M117" t="s">
         <v>317</v>
-      </c>
-      <c r="M117" t="s">
-        <v>318</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -12605,10 +12911,10 @@
         <v>5</v>
       </c>
       <c r="AF117" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG117" t="s">
         <v>319</v>
-      </c>
-      <c r="AG117" t="s">
-        <v>320</v>
       </c>
       <c r="AH117">
         <v>80</v>
@@ -12643,7 +12949,7 @@
       <c r="BU117" s="1"/>
       <c r="BV117" s="7"/>
     </row>
-    <row r="118" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:74">
       <c r="B118" s="1">
         <v>114</v>
       </c>
@@ -12758,7 +13064,7 @@
       <c r="BU118" s="1"/>
       <c r="BV118" s="7"/>
     </row>
-    <row r="119" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:74">
       <c r="B119" s="1">
         <v>115</v>
       </c>
@@ -12839,7 +13145,7 @@
       <c r="BU119" s="1"/>
       <c r="BV119" s="7"/>
     </row>
-    <row r="120" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:74">
       <c r="B120" s="1">
         <v>116</v>
       </c>
@@ -12920,7 +13226,7 @@
       <c r="BU120" s="1"/>
       <c r="BV120" s="7"/>
     </row>
-    <row r="121" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:74">
       <c r="B121" s="1">
         <v>117</v>
       </c>
@@ -13003,7 +13309,7 @@
       <c r="BU121" s="1"/>
       <c r="BV121" s="7"/>
     </row>
-    <row r="122" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:74">
       <c r="B122" s="1">
         <v>118</v>
       </c>
@@ -13084,7 +13390,7 @@
       <c r="BU122" s="1"/>
       <c r="BV122" s="7"/>
     </row>
-    <row r="123" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:74">
       <c r="B123" s="1">
         <v>119</v>
       </c>
@@ -13167,7 +13473,7 @@
       <c r="BU123" s="1"/>
       <c r="BV123" s="7"/>
     </row>
-    <row r="124" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:74">
       <c r="B124" s="1">
         <v>120</v>
       </c>
@@ -13262,7 +13568,7 @@
       <c r="BU124" s="1"/>
       <c r="BV124" s="7"/>
     </row>
-    <row r="125" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:74">
       <c r="B125" s="1">
         <v>121</v>
       </c>
@@ -13315,14 +13621,14 @@
       <c r="AC125" s="1">
         <v>2</v>
       </c>
-      <c r="AD125" s="1" t="s">
+      <c r="AD125" s="1">
+        <v>26</v>
+      </c>
+      <c r="AE125" s="7">
+        <v>14</v>
+      </c>
+      <c r="AF125" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="AE125" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="AF125" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="AG125" s="5" t="s">
         <v>212</v>
@@ -13379,7 +13685,7 @@
       <c r="BU125" s="1"/>
       <c r="BV125" s="7"/>
     </row>
-    <row r="126" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:74">
       <c r="B126" s="1">
         <v>122</v>
       </c>
@@ -13460,7 +13766,7 @@
       <c r="BU126" s="1"/>
       <c r="BV126" s="7"/>
     </row>
-    <row r="127" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:74">
       <c r="B127" s="1">
         <v>123</v>
       </c>
@@ -13541,7 +13847,7 @@
       <c r="BU127" s="1"/>
       <c r="BV127" s="7"/>
     </row>
-    <row r="128" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:74">
       <c r="B128" s="1">
         <v>124</v>
       </c>
@@ -13565,10 +13871,10 @@
       </c>
       <c r="K128" s="4"/>
       <c r="L128" t="s">
+        <v>320</v>
+      </c>
+      <c r="M128" t="s">
         <v>321</v>
-      </c>
-      <c r="M128" t="s">
-        <v>322</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -13583,10 +13889,10 @@
         <v>10</v>
       </c>
       <c r="AF128" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG128" t="s">
         <v>323</v>
-      </c>
-      <c r="AG128" t="s">
-        <v>324</v>
       </c>
       <c r="AH128">
         <v>20</v>
@@ -13627,7 +13933,7 @@
       <c r="BU128" s="1"/>
       <c r="BV128" s="7"/>
     </row>
-    <row r="129" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:74">
       <c r="B129" s="1">
         <v>125</v>
       </c>
@@ -13651,10 +13957,10 @@
       </c>
       <c r="K129" s="4"/>
       <c r="L129" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M129" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N129">
         <v>10</v>
@@ -13669,10 +13975,10 @@
         <v>2</v>
       </c>
       <c r="AF129" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG129" t="s">
         <v>326</v>
-      </c>
-      <c r="AG129" t="s">
-        <v>327</v>
       </c>
       <c r="AH129">
         <v>30</v>
@@ -13713,7 +14019,7 @@
       <c r="BU129" s="1"/>
       <c r="BV129" s="7"/>
     </row>
-    <row r="130" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:74">
       <c r="B130" s="1">
         <v>126</v>
       </c>
@@ -13739,7 +14045,7 @@
       </c>
       <c r="K130" s="4"/>
       <c r="L130" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M130" s="1"/>
       <c r="N130" s="1">
@@ -13768,7 +14074,7 @@
         <v>201</v>
       </c>
       <c r="AG130" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AH130" s="1">
         <v>50</v>
@@ -13822,7 +14128,7 @@
       <c r="BU130" s="1"/>
       <c r="BV130" s="7"/>
     </row>
-    <row r="131" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:74">
       <c r="B131" s="1">
         <v>127</v>
       </c>
@@ -13903,7 +14209,7 @@
       <c r="BU131" s="1"/>
       <c r="BV131" s="7"/>
     </row>
-    <row r="132" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:74">
       <c r="B132" s="1">
         <v>128</v>
       </c>
@@ -13984,7 +14290,7 @@
       <c r="BU132" s="1"/>
       <c r="BV132" s="7"/>
     </row>
-    <row r="133" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:74">
       <c r="B133" s="1">
         <v>129</v>
       </c>
@@ -14036,10 +14342,10 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="7"/>
       <c r="AF133" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG133" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="AG133" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="AH133" s="1">
         <v>0</v>
@@ -14091,7 +14397,7 @@
       <c r="BU133" s="1"/>
       <c r="BV133" s="7"/>
     </row>
-    <row r="134" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:74">
       <c r="B134" s="1">
         <v>130</v>
       </c>
@@ -14120,7 +14426,7 @@
         <v>129</v>
       </c>
       <c r="L134" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N134">
         <v>50</v>
@@ -14129,10 +14435,10 @@
         <v>3</v>
       </c>
       <c r="AF134" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG134" t="s">
         <v>329</v>
-      </c>
-      <c r="AG134" t="s">
-        <v>330</v>
       </c>
       <c r="AH134">
         <v>40</v>
@@ -14170,7 +14476,7 @@
       <c r="BU134" s="1"/>
       <c r="BV134" s="7"/>
     </row>
-    <row r="135" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:74">
       <c r="B135" s="1">
         <v>131</v>
       </c>
@@ -14251,7 +14557,7 @@
       <c r="BU135" s="1"/>
       <c r="BV135" s="7"/>
     </row>
-    <row r="136" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:74">
       <c r="B136" s="1">
         <v>132</v>
       </c>
@@ -14332,7 +14638,7 @@
       <c r="BU136" s="1"/>
       <c r="BV136" s="7"/>
     </row>
-    <row r="137" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:74">
       <c r="B137" s="1">
         <v>133</v>
       </c>
@@ -14413,7 +14719,7 @@
       <c r="BU137" s="1"/>
       <c r="BV137" s="7"/>
     </row>
-    <row r="138" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:74">
       <c r="B138" s="1">
         <v>134</v>
       </c>
@@ -14496,7 +14802,7 @@
       <c r="BU138" s="1"/>
       <c r="BV138" s="7"/>
     </row>
-    <row r="139" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:74">
       <c r="B139" s="1">
         <v>135</v>
       </c>
@@ -14579,7 +14885,7 @@
       <c r="BU139" s="1"/>
       <c r="BV139" s="7"/>
     </row>
-    <row r="140" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:74">
       <c r="B140" s="1">
         <v>136</v>
       </c>
@@ -14662,7 +14968,7 @@
       <c r="BU140" s="1"/>
       <c r="BV140" s="7"/>
     </row>
-    <row r="141" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:74">
       <c r="B141" s="1">
         <v>137</v>
       </c>
@@ -14690,10 +14996,10 @@
       </c>
       <c r="K141" s="4"/>
       <c r="L141" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="M141" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="M141" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="N141" s="1">
         <v>0</v>
@@ -14720,10 +15026,10 @@
       </c>
       <c r="AE141" s="7"/>
       <c r="AF141" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG141" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="AG141" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="AH141" s="1"/>
       <c r="AI141" s="1"/>
@@ -14771,7 +15077,7 @@
       <c r="BU141" s="1"/>
       <c r="BV141" s="7"/>
     </row>
-    <row r="142" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:74">
       <c r="B142" s="1">
         <v>138</v>
       </c>
@@ -14852,7 +15158,7 @@
       <c r="BU142" s="1"/>
       <c r="BV142" s="7"/>
     </row>
-    <row r="143" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:74">
       <c r="B143" s="1">
         <v>139</v>
       </c>
@@ -14935,7 +15241,7 @@
       <c r="BU143" s="1"/>
       <c r="BV143" s="7"/>
     </row>
-    <row r="144" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:74">
       <c r="B144" s="1">
         <v>140</v>
       </c>
@@ -15016,7 +15322,7 @@
       <c r="BU144" s="1"/>
       <c r="BV144" s="7"/>
     </row>
-    <row r="145" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:74">
       <c r="B145" s="1">
         <v>141</v>
       </c>
@@ -15099,7 +15405,7 @@
       <c r="BU145" s="1"/>
       <c r="BV145" s="7"/>
     </row>
-    <row r="146" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:74">
       <c r="B146" s="1">
         <v>142</v>
       </c>
@@ -15180,7 +15486,7 @@
       <c r="BU146" s="1"/>
       <c r="BV146" s="7"/>
     </row>
-    <row r="147" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:74">
       <c r="B147" s="1">
         <v>143</v>
       </c>
@@ -15261,7 +15567,7 @@
       <c r="BU147" s="1"/>
       <c r="BV147" s="7"/>
     </row>
-    <row r="148" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:74">
       <c r="B148" s="1">
         <v>144</v>
       </c>
@@ -15342,7 +15648,7 @@
       <c r="BU148" s="1"/>
       <c r="BV148" s="7"/>
     </row>
-    <row r="149" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:74">
       <c r="B149" s="1">
         <v>145</v>
       </c>
@@ -15366,10 +15672,10 @@
       </c>
       <c r="K149" s="4"/>
       <c r="L149" t="s">
+        <v>330</v>
+      </c>
+      <c r="M149" t="s">
         <v>331</v>
-      </c>
-      <c r="M149" t="s">
-        <v>332</v>
       </c>
       <c r="N149">
         <v>60</v>
@@ -15387,10 +15693,10 @@
         <v>30</v>
       </c>
       <c r="AF149" t="s">
+        <v>332</v>
+      </c>
+      <c r="AG149" t="s">
         <v>333</v>
-      </c>
-      <c r="AG149" t="s">
-        <v>334</v>
       </c>
       <c r="AH149">
         <v>100</v>
@@ -15425,7 +15731,7 @@
       <c r="BU149" s="1"/>
       <c r="BV149" s="7"/>
     </row>
-    <row r="150" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:74">
       <c r="B150" s="1">
         <v>146</v>
       </c>
@@ -15460,7 +15766,7 @@
       <c r="BU150" s="1"/>
       <c r="BV150" s="7"/>
     </row>
-    <row r="151" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:74">
       <c r="B151" s="1">
         <v>147</v>
       </c>
@@ -15484,7 +15790,7 @@
       </c>
       <c r="K151" s="4"/>
       <c r="L151" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N151">
         <v>10</v>
@@ -15516,7 +15822,7 @@
       <c r="BU151" s="1"/>
       <c r="BV151" s="7"/>
     </row>
-    <row r="152" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:74">
       <c r="B152" s="1">
         <v>148</v>
       </c>
@@ -15542,10 +15848,10 @@
         <v>147</v>
       </c>
       <c r="L152" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M152" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -15560,10 +15866,10 @@
         <v>30</v>
       </c>
       <c r="AF152" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG152" t="s">
         <v>337</v>
-      </c>
-      <c r="AG152" t="s">
-        <v>338</v>
       </c>
       <c r="AH152">
         <v>20</v>
@@ -15601,7 +15907,7 @@
       <c r="BU152" s="1"/>
       <c r="BV152" s="7"/>
     </row>
-    <row r="153" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:74">
       <c r="B153" s="1">
         <v>149</v>
       </c>
@@ -15638,7 +15944,7 @@
       <c r="BU153" s="1"/>
       <c r="BV153" s="7"/>
     </row>
-    <row r="154" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:74">
       <c r="B154" s="1">
         <v>150</v>
       </c>
@@ -15662,10 +15968,10 @@
       </c>
       <c r="K154" s="4"/>
       <c r="L154" t="s">
+        <v>338</v>
+      </c>
+      <c r="M154" t="s">
         <v>339</v>
-      </c>
-      <c r="M154" t="s">
-        <v>340</v>
       </c>
       <c r="N154">
         <v>10</v>
@@ -15683,10 +15989,10 @@
         <v>-1</v>
       </c>
       <c r="AF154" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG154" t="s">
         <v>341</v>
-      </c>
-      <c r="AG154" t="s">
-        <v>342</v>
       </c>
       <c r="AH154">
         <v>0</v>
@@ -15724,7 +16030,7 @@
       <c r="BU154" s="1"/>
       <c r="BV154" s="7"/>
     </row>
-    <row r="155" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:74">
       <c r="B155" s="1">
         <v>151</v>
       </c>
@@ -15805,7 +16111,7 @@
       <c r="BU155" s="1"/>
       <c r="BV155" s="7"/>
     </row>
-    <row r="156" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:74">
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -15876,7 +16182,7 @@
       <c r="BU156" s="1"/>
       <c r="BV156" s="7"/>
     </row>
-    <row r="157" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:74">
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -15947,7 +16253,7 @@
       <c r="BU157" s="1"/>
       <c r="BV157" s="7"/>
     </row>
-    <row r="158" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:74">
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -16018,7 +16324,7 @@
       <c r="BU158" s="1"/>
       <c r="BV158" s="7"/>
     </row>
-    <row r="159" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:74">
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -16089,7 +16395,7 @@
       <c r="BU159" s="1"/>
       <c r="BV159" s="7"/>
     </row>
-    <row r="160" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:74">
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -16160,7 +16466,7 @@
       <c r="BU160" s="1"/>
       <c r="BV160" s="7"/>
     </row>
-    <row r="161" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:74">
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -16231,7 +16537,7 @@
       <c r="BU161" s="1"/>
       <c r="BV161" s="7"/>
     </row>
-    <row r="162" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:74">
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -16302,7 +16608,7 @@
       <c r="BU162" s="1"/>
       <c r="BV162" s="7"/>
     </row>
-    <row r="163" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:74">
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -16373,7 +16679,7 @@
       <c r="BU163" s="1"/>
       <c r="BV163" s="7"/>
     </row>
-    <row r="164" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:74">
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -16444,7 +16750,7 @@
       <c r="BU164" s="1"/>
       <c r="BV164" s="7"/>
     </row>
-    <row r="165" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:74">
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -16515,7 +16821,7 @@
       <c r="BU165" s="1"/>
       <c r="BV165" s="7"/>
     </row>
-    <row r="166" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:74">
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
@@ -16586,7 +16892,7 @@
       <c r="BU166" s="1"/>
       <c r="BV166" s="7"/>
     </row>
-    <row r="167" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:74">
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -16657,7 +16963,7 @@
       <c r="BU167" s="1"/>
       <c r="BV167" s="7"/>
     </row>
-    <row r="168" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:74">
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
@@ -16728,7 +17034,7 @@
       <c r="BU168" s="1"/>
       <c r="BV168" s="7"/>
     </row>
-    <row r="169" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:74">
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
@@ -16799,7 +17105,7 @@
       <c r="BU169" s="1"/>
       <c r="BV169" s="7"/>
     </row>
-    <row r="170" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:74">
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
@@ -16870,7 +17176,7 @@
       <c r="BU170" s="1"/>
       <c r="BV170" s="7"/>
     </row>
-    <row r="171" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:74">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -16945,7 +17251,7 @@
       <c r="BU171" s="1"/>
       <c r="BV171" s="7"/>
     </row>
-    <row r="172" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:74">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -17020,7 +17326,7 @@
       <c r="BU172" s="1"/>
       <c r="BV172" s="7"/>
     </row>
-    <row r="173" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:74">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -17095,7 +17401,7 @@
       <c r="BU173" s="1"/>
       <c r="BV173" s="7"/>
     </row>
-    <row r="174" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:74">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -17170,7 +17476,7 @@
       <c r="BU174" s="1"/>
       <c r="BV174" s="7"/>
     </row>
-    <row r="175" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:74">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -17245,7 +17551,7 @@
       <c r="BU175" s="1"/>
       <c r="BV175" s="7"/>
     </row>
-    <row r="176" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:74">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -17320,7 +17626,7 @@
       <c r="BU176" s="1"/>
       <c r="BV176" s="7"/>
     </row>
-    <row r="177" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:74">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -17395,7 +17701,7 @@
       <c r="BU177" s="1"/>
       <c r="BV177" s="7"/>
     </row>
-    <row r="178" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:74">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -17470,7 +17776,7 @@
       <c r="BU178" s="1"/>
       <c r="BV178" s="7"/>
     </row>
-    <row r="179" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:74">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -17545,7 +17851,7 @@
       <c r="BU179" s="1"/>
       <c r="BV179" s="7"/>
     </row>
-    <row r="180" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:74">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -17620,7 +17926,7 @@
       <c r="BU180" s="1"/>
       <c r="BV180" s="7"/>
     </row>
-    <row r="181" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:74">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -17695,7 +18001,7 @@
       <c r="BU181" s="1"/>
       <c r="BV181" s="7"/>
     </row>
-    <row r="182" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:74">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -17770,7 +18076,7 @@
       <c r="BU182" s="1"/>
       <c r="BV182" s="7"/>
     </row>
-    <row r="183" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:74">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -17845,7 +18151,7 @@
       <c r="BU183" s="1"/>
       <c r="BV183" s="7"/>
     </row>
-    <row r="184" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:74">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -17920,7 +18226,7 @@
       <c r="BU184" s="1"/>
       <c r="BV184" s="7"/>
     </row>
-    <row r="185" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:74">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -17995,7 +18301,7 @@
       <c r="BU185" s="1"/>
       <c r="BV185" s="7"/>
     </row>
-    <row r="186" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:74">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -18070,7 +18376,7 @@
       <c r="BU186" s="1"/>
       <c r="BV186" s="7"/>
     </row>
-    <row r="187" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:74">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -18145,7 +18451,7 @@
       <c r="BU187" s="1"/>
       <c r="BV187" s="7"/>
     </row>
-    <row r="188" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:74">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -18220,7 +18526,7 @@
       <c r="BU188" s="1"/>
       <c r="BV188" s="7"/>
     </row>
-    <row r="189" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:74">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -18295,7 +18601,7 @@
       <c r="BU189" s="1"/>
       <c r="BV189" s="7"/>
     </row>
-    <row r="190" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:74">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -18370,7 +18676,7 @@
       <c r="BU190" s="1"/>
       <c r="BV190" s="7"/>
     </row>
-    <row r="191" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:74">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -18445,7 +18751,7 @@
       <c r="BU191" s="1"/>
       <c r="BV191" s="7"/>
     </row>
-    <row r="192" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:74">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -18520,7 +18826,7 @@
       <c r="BU192" s="1"/>
       <c r="BV192" s="7"/>
     </row>
-    <row r="193" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:74">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -18595,7 +18901,7 @@
       <c r="BU193" s="1"/>
       <c r="BV193" s="7"/>
     </row>
-    <row r="194" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:74">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -18670,7 +18976,7 @@
       <c r="BU194" s="1"/>
       <c r="BV194" s="7"/>
     </row>
-    <row r="195" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:74">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -18745,7 +19051,7 @@
       <c r="BU195" s="1"/>
       <c r="BV195" s="7"/>
     </row>
-    <row r="196" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:74">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -18820,7 +19126,7 @@
       <c r="BU196" s="1"/>
       <c r="BV196" s="7"/>
     </row>
-    <row r="197" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:74">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -18895,7 +19201,7 @@
       <c r="BU197" s="1"/>
       <c r="BV197" s="7"/>
     </row>
-    <row r="198" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:74">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -18970,7 +19276,7 @@
       <c r="BU198" s="1"/>
       <c r="BV198" s="7"/>
     </row>
-    <row r="199" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:74">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -19045,7 +19351,7 @@
       <c r="BU199" s="1"/>
       <c r="BV199" s="7"/>
     </row>
-    <row r="200" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:74">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -19120,7 +19426,7 @@
       <c r="BU200" s="1"/>
       <c r="BV200" s="7"/>
     </row>
-    <row r="201" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:74">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -19195,7 +19501,7 @@
       <c r="BU201" s="1"/>
       <c r="BV201" s="7"/>
     </row>
-    <row r="202" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:74">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -19270,7 +19576,7 @@
       <c r="BU202" s="1"/>
       <c r="BV202" s="7"/>
     </row>
-    <row r="203" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:74">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -19345,7 +19651,7 @@
       <c r="BU203" s="1"/>
       <c r="BV203" s="7"/>
     </row>
-    <row r="204" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:74" ht="15.75" thickBot="1">
       <c r="B204" s="1">
         <v>0</v>
       </c>
@@ -19534,30 +19840,30 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="6.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:6">
       <c r="B2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="6">
         <v>1000</v>
       </c>
@@ -19574,7 +19880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" s="6">
         <v>1001</v>
       </c>
@@ -19591,7 +19897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5" s="6">
         <v>1002</v>
       </c>
@@ -19608,7 +19914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="B6" s="6">
         <v>1003</v>
       </c>
@@ -19625,7 +19931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7" s="6">
         <v>1004</v>
       </c>
@@ -19642,7 +19948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" s="6">
         <v>1005</v>
       </c>
@@ -19659,7 +19965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="B9" s="6">
         <v>1006</v>
       </c>
@@ -19676,7 +19982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6">
       <c r="B10" s="6">
         <v>1007</v>
       </c>
@@ -19693,7 +19999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="B11" s="6">
         <v>1008</v>
       </c>
@@ -19710,7 +20016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6">
       <c r="B12" s="6">
         <v>1009</v>
       </c>
@@ -19727,7 +20033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6">
       <c r="B13" s="6">
         <v>1010</v>
       </c>
@@ -19744,7 +20050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6">
       <c r="B14" s="6">
         <v>1011</v>
       </c>
@@ -19761,7 +20067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6">
       <c r="B15" s="6">
         <v>1012</v>
       </c>
@@ -19778,7 +20084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6">
       <c r="B16" s="6">
         <v>1013</v>
       </c>
@@ -19795,11 +20101,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="15.75" thickBot="1">
       <c r="B17" s="17">
         <v>1014</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="19">
         <v>1</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -19826,20 +20132,20 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="78.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="7.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7">
       <c r="B2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
@@ -19848,13 +20154,13 @@
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="6">
         <v>2000</v>
       </c>
@@ -19862,17 +20168,17 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="F3" s="6">
         <v>2000</v>
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="6">
         <v>2001</v>
       </c>
@@ -19880,17 +20186,17 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F4" s="6">
         <v>2001</v>
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" s="6">
         <v>2002</v>
       </c>
@@ -19898,17 +20204,17 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F5" s="6">
         <v>2002</v>
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" s="6">
         <v>2003</v>
       </c>
@@ -19916,17 +20222,17 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F6" s="6">
         <v>2003</v>
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" s="6">
         <v>2004</v>
       </c>
@@ -19934,17 +20240,17 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F7" s="6">
         <v>2004</v>
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7">
       <c r="B8" s="6">
         <v>2005</v>
       </c>
@@ -19952,17 +20258,17 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="F8" s="6">
         <v>2005</v>
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7">
       <c r="B9" s="6">
         <v>2006</v>
       </c>
@@ -19970,17 +20276,17 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="F9" s="6">
         <v>2006</v>
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7">
       <c r="B10" s="6">
         <v>2007</v>
       </c>
@@ -19988,17 +20294,17 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="F10" s="6">
         <v>2007</v>
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="B11" s="6">
         <v>2008</v>
       </c>
@@ -20006,17 +20312,17 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="F11" s="6">
         <v>2008</v>
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7">
       <c r="B12" s="6">
         <v>2009</v>
       </c>
@@ -20024,17 +20330,17 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="F12" s="6">
         <v>2009</v>
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="6">
         <v>2010</v>
       </c>
@@ -20042,17 +20348,17 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="F13" s="6">
         <v>2010</v>
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14" s="6">
         <v>2011</v>
       </c>
@@ -20060,17 +20366,17 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F14" s="6">
         <v>2011</v>
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15" s="6">
         <v>2012</v>
       </c>
@@ -20078,17 +20384,17 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="F15" s="6">
         <v>2012</v>
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16" s="6">
         <v>2013</v>
       </c>
@@ -20096,17 +20402,17 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F16" s="6">
         <v>2013</v>
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="6">
         <v>2014</v>
       </c>
@@ -20114,17 +20420,17 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="F17" s="6">
         <v>2014</v>
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="6">
         <v>2015</v>
       </c>
@@ -20132,17 +20438,17 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F18" s="6">
         <v>2015</v>
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" s="6">
         <v>2016</v>
       </c>
@@ -20150,17 +20456,17 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F19" s="6">
         <v>2016</v>
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" s="6">
         <v>2017</v>
       </c>
@@ -20168,17 +20474,17 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="F20" s="6">
         <v>2017</v>
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="B21" s="6">
         <v>2018</v>
       </c>
@@ -20186,17 +20492,17 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="F21" s="6">
         <v>2018</v>
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" s="6">
         <v>2019</v>
       </c>
@@ -20204,17 +20510,17 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F22" s="6">
         <v>2019</v>
       </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23" s="6">
         <v>2020</v>
       </c>
@@ -20222,17 +20528,17 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="F23" s="6">
         <v>2020</v>
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24" s="6">
         <v>2021</v>
       </c>
@@ -20240,17 +20546,17 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="F24" s="6">
         <v>2021</v>
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25" s="6">
         <v>2022</v>
       </c>
@@ -20258,17 +20564,17 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="F25" s="6">
         <v>2022</v>
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26" s="6">
         <v>2023</v>
       </c>
@@ -20276,17 +20582,17 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="F26" s="6">
         <v>2023</v>
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="B27" s="6">
         <v>2024</v>
       </c>
@@ -20294,17 +20600,17 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F27" s="6">
         <v>2024</v>
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28" s="6">
         <v>2025</v>
       </c>
@@ -20312,17 +20618,17 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="F28" s="6">
         <v>2025</v>
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="B29" s="6">
         <v>2026</v>
       </c>
@@ -20336,7 +20642,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7">
       <c r="B30" s="6">
         <v>2027</v>
       </c>
@@ -20350,7 +20656,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="B31" s="6">
         <v>2028</v>
       </c>
@@ -20364,7 +20670,7 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="B32" s="6">
         <v>2029</v>
       </c>
@@ -20378,7 +20684,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33" s="6">
         <v>2030</v>
       </c>
@@ -20392,7 +20698,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7">
       <c r="B34" s="6">
         <v>2031</v>
       </c>
@@ -20406,7 +20712,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7">
       <c r="B35" s="6">
         <v>2032</v>
       </c>
@@ -20420,7 +20726,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" ht="15.75" thickBot="1">
       <c r="B36" s="6">
         <v>2033</v>
       </c>
@@ -20442,18 +20748,765 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="72" style="28" customWidth="1"/>
+    <col min="9" max="9" width="50.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="I4" t="s">
+        <v>492</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="I5" t="s">
+        <v>493</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="I6" t="s">
+        <v>494</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="I7" t="s">
+        <v>495</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="I8" t="s">
+        <v>496</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="I9" t="s">
+        <v>497</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="I10" t="s">
+        <v>498</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="I11" t="s">
+        <v>499</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="I12" t="s">
+        <v>500</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="H13" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="I13" t="s">
+        <v>501</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="H14" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="H15" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="I15" t="s">
+        <v>503</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="H16" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="I16" t="s">
+        <v>504</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10">
+      <c r="H17" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="I17" t="s">
+        <v>505</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10">
+      <c r="H18" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="I18" t="s">
+        <v>506</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10">
+      <c r="H19" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10">
+      <c r="H20" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="I20" t="s">
+        <v>507</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10">
+      <c r="H21" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="I21" t="s">
+        <v>508</v>
+      </c>
+      <c r="J21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10">
+      <c r="H22" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="I22" t="s">
+        <v>509</v>
+      </c>
+      <c r="J22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10">
+      <c r="H23" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="I23" t="s">
+        <v>510</v>
+      </c>
+      <c r="J23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10">
+      <c r="H24" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="I24" t="s">
+        <v>511</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10">
+      <c r="H25" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="I25" t="s">
+        <v>512</v>
+      </c>
+      <c r="J25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10">
+      <c r="H26" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="I26" t="s">
+        <v>513</v>
+      </c>
+      <c r="J26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10">
+      <c r="H27" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="J27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="8:10">
+      <c r="H28" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="I28" t="s">
+        <v>515</v>
+      </c>
+      <c r="J28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10">
+      <c r="H29" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="I29" t="s">
+        <v>516</v>
+      </c>
+      <c r="J29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="8:10">
+      <c r="H30" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="I30" t="s">
+        <v>517</v>
+      </c>
+      <c r="J30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="8:10">
+      <c r="H31" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="I31" t="s">
+        <v>518</v>
+      </c>
+      <c r="J31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="8:10">
+      <c r="H32" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="I32" t="s">
+        <v>519</v>
+      </c>
+      <c r="J32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10">
+      <c r="H33" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="I33" t="s">
+        <v>520</v>
+      </c>
+      <c r="J33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10">
+      <c r="H34" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="I34" t="s">
+        <v>521</v>
+      </c>
+      <c r="J34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10">
+      <c r="H35" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="I35" t="s">
+        <v>522</v>
+      </c>
+      <c r="J35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10">
+      <c r="H36" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="I36" t="s">
+        <v>523</v>
+      </c>
+      <c r="J36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10">
+      <c r="H37" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="J37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10">
+      <c r="H38" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="I38" t="s">
+        <v>524</v>
+      </c>
+      <c r="J38">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10">
+      <c r="H39" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="I39" t="s">
+        <v>525</v>
+      </c>
+      <c r="J39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10">
+      <c r="H40" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="I40" t="s">
+        <v>526</v>
+      </c>
+      <c r="J40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10">
+      <c r="H41" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="I41" t="s">
+        <v>527</v>
+      </c>
+      <c r="J41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10">
+      <c r="H42" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="I42" t="s">
+        <v>528</v>
+      </c>
+      <c r="J42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10">
+      <c r="H43" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="I43" t="s">
+        <v>529</v>
+      </c>
+      <c r="J43">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10">
+      <c r="G46" t="s">
+        <v>530</v>
+      </c>
+      <c r="H46" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10">
+      <c r="H47" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10">
+      <c r="H48" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8">
+      <c r="H49" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8">
+      <c r="H50"/>
+    </row>
+    <row r="52" spans="7:8">
+      <c r="G52" t="s">
+        <v>535</v>
+      </c>
+      <c r="H52" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8">
+      <c r="H53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8">
+      <c r="H54" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8">
+      <c r="H55" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8">
+      <c r="H56" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8">
+      <c r="H57" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8">
+      <c r="H58" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8">
+      <c r="G60" t="s">
+        <v>536</v>
+      </c>
+      <c r="H60" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8">
+      <c r="H61" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8">
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="7:8">
+      <c r="H63"/>
+    </row>
+    <row r="65" spans="7:8">
+      <c r="H65" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8">
+      <c r="G66" t="s">
+        <v>540</v>
+      </c>
+      <c r="H66" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8">
+      <c r="H67" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8">
+      <c r="H68" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8">
+      <c r="H69" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8">
+      <c r="H70" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8">
+      <c r="H71" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8">
+      <c r="H72" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8">
+      <c r="H73" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8">
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="7:8">
+      <c r="H75"/>
+    </row>
+    <row r="77" spans="7:8">
+      <c r="G77" t="s">
+        <v>532</v>
+      </c>
+      <c r="H77" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="78" spans="7:8">
+      <c r="H78" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8">
+      <c r="H79" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="84" spans="7:8">
+      <c r="G84" t="s">
+        <v>533</v>
+      </c>
+      <c r="H84" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="7:8">
+      <c r="H85" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8">
+      <c r="G90" t="s">
+        <v>534</v>
+      </c>
+      <c r="H90" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="91" spans="7:8">
+      <c r="H91" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="92" spans="7:8">
+      <c r="H92" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8">
+      <c r="G95" t="s">
+        <v>531</v>
+      </c>
+      <c r="H95" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8">
+      <c r="H96" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8">
+      <c r="H97" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="101" spans="7:8">
+      <c r="G101" t="s">
+        <v>538</v>
+      </c>
+      <c r="H101" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8">
+      <c r="H102" t="s">
+        <v>506</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>37</v>
       </c>
@@ -20461,7 +21514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -20469,7 +21522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -20477,7 +21530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -20485,7 +21538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -20493,7 +21546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>27</v>
       </c>
@@ -20501,7 +21554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -20509,7 +21562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>29</v>
       </c>
@@ -20517,7 +21570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -20525,7 +21578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3">
       <c r="B11" t="s">
         <v>31</v>
       </c>
@@ -20533,7 +21586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -20541,7 +21594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -20549,7 +21602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -20557,7 +21610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -20565,113 +21618,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="C16">
         <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>348</v>
-      </c>
-      <c r="F4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -19,6 +19,7 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2396,9 +2397,9 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="B1:CB204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -23462,8 +23463,8 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="B1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="G47" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView topLeftCell="G50" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -19,7 +19,6 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -859,9 +858,6 @@
     <t>Mania</t>
   </si>
   <si>
-    <t>Lancez une pièce. Si c'est face, cette attaque inflige 30 dégâts plus 10 dégâts supplémentaires ; si c'est pile, cette attaque inflige 30 dégâts et Nidoking s'inflige 10 dégâts.</t>
-  </si>
-  <si>
     <t>Toxik</t>
   </si>
   <si>
@@ -1009,9 +1005,6 @@
     <t>Poing-éclair</t>
   </si>
   <si>
-    <t>Lancez une pièce. Si c'est face, cette attaque inflige 30 dégâts plus 10 dégâts supplémentaires ; si c'est pile, cette attaque inflige 30 dégâts et Élektek s'inflige 10 dégâts.</t>
-  </si>
-  <si>
     <t>Draco-rage</t>
   </si>
   <si>
@@ -1340,9 +1333,6 @@
   </si>
   <si>
     <t>Gaz infect</t>
-  </si>
-  <si>
-    <t>Lancez une pièce. Si c'est face, le Pokémon Défenseur est maintenant Empoisonné ; si c'est pile, il est maintenant Confus.</t>
   </si>
   <si>
     <t>Balayage</t>
@@ -1796,6 +1786,15 @@
   </si>
   <si>
     <t>Coef faib</t>
+  </si>
+  <si>
+    <t>Lancez une pièce. Si c'est face, cette attaque inflige 30 dégâts plus 10 dégâts supplémentaires , si c'est pile, cette attaque inflige 30 dégâts et Nidoking s'inflige 10 dégâts.</t>
+  </si>
+  <si>
+    <t>Lancez une pièce. Si c'est face, le Pokémon Défenseur est maintenant Empoisonné , si c'est pile, il est maintenant Confus.</t>
+  </si>
+  <si>
+    <t>Lancez une pièce. Si c'est face, cette attaque inflige 30 dégâts plus 10 dégâts supplémentaires , si c'est pile, cette attaque inflige 30 dégâts et Élektek s'inflige 10 dégâts.</t>
   </si>
 </sst>
 </file>
@@ -2397,9 +2396,9 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="B1:CB204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK110" sqref="AK110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2612,7 +2611,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -2630,13 +2629,13 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>191</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>190</v>
@@ -2654,7 +2653,7 @@
         <v>193</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>222</v>
@@ -2705,10 +2704,10 @@
         <v>12</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AI4" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AJ4" s="5" t="s">
         <v>0</v>
@@ -2720,7 +2719,7 @@
         <v>193</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AN4" s="1" t="s">
         <v>222</v>
@@ -2771,10 +2770,10 @@
         <v>12</v>
       </c>
       <c r="BD4" s="4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="BE4" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="BF4" s="6" t="s">
         <v>0</v>
@@ -3878,7 +3877,7 @@
         <v>40</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -4464,7 +4463,7 @@
         <v>218</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P18" s="1">
         <v>0</v>
@@ -4601,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AB19">
         <v>3</v>
@@ -4703,7 +4702,7 @@
         <v>268</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P20" s="1">
         <v>10</v>
@@ -4822,7 +4821,7 @@
         <v>268</v>
       </c>
       <c r="O21" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P21">
         <v>10</v>
@@ -5156,16 +5155,16 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="7"/>
       <c r="AJ24" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AK24" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AL24" s="1">
         <v>0</v>
       </c>
       <c r="AM24" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
@@ -5636,7 +5635,7 @@
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1">
@@ -5666,10 +5665,10 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="7"/>
       <c r="AJ29" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AK29" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AL29" s="1">
         <v>30</v>
@@ -5872,10 +5871,10 @@
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P31" s="1">
         <v>10</v>
@@ -6371,10 +6370,10 @@
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P36" s="1">
         <v>0</v>
@@ -6490,7 +6489,7 @@
         <v>32</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>266</v>
@@ -6499,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -6530,7 +6529,7 @@
         <v>2</v>
       </c>
       <c r="AJ37" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AK37" s="5"/>
       <c r="AL37" s="1">
@@ -6620,13 +6619,13 @@
         <v>275</v>
       </c>
       <c r="O38" t="s">
-        <v>276</v>
+        <v>583</v>
       </c>
       <c r="P38">
         <v>30</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="Z38">
         <v>1</v>
@@ -6644,10 +6643,10 @@
         <v>10</v>
       </c>
       <c r="AJ38" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK38" t="s">
         <v>277</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>278</v>
       </c>
       <c r="AL38">
         <v>20</v>
@@ -6722,10 +6721,10 @@
       </c>
       <c r="M39" s="4"/>
       <c r="N39" t="s">
+        <v>278</v>
+      </c>
+      <c r="O39" t="s">
         <v>279</v>
-      </c>
-      <c r="O39" t="s">
-        <v>280</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -6747,10 +6746,10 @@
         <v>-1</v>
       </c>
       <c r="AJ39" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK39" t="s">
         <v>281</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>282</v>
       </c>
       <c r="AL39">
         <v>0</v>
@@ -7036,10 +7035,10 @@
         <v>37</v>
       </c>
       <c r="N42" t="s">
+        <v>282</v>
+      </c>
+      <c r="O42" t="s">
         <v>283</v>
-      </c>
-      <c r="O42" t="s">
-        <v>284</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -7055,10 +7054,10 @@
         <v>702</v>
       </c>
       <c r="AJ42" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK42" t="s">
         <v>285</v>
-      </c>
-      <c r="AK42" t="s">
-        <v>286</v>
       </c>
       <c r="AL42">
         <v>80</v>
@@ -8194,7 +8193,7 @@
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1">
@@ -8224,7 +8223,7 @@
       <c r="AG54" s="1"/>
       <c r="AH54" s="7"/>
       <c r="AJ54" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AK54" s="5"/>
       <c r="AL54" s="1">
@@ -8328,10 +8327,10 @@
         <v>1</v>
       </c>
       <c r="AJ55" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK55" t="s">
         <v>287</v>
-      </c>
-      <c r="AK55" t="s">
-        <v>288</v>
       </c>
       <c r="AL55">
         <v>70</v>
@@ -8979,7 +8978,7 @@
       </c>
       <c r="M62" s="4"/>
       <c r="N62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P62">
         <v>20</v>
@@ -9077,7 +9076,7 @@
         <v>201</v>
       </c>
       <c r="O63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P63">
         <v>50</v>
@@ -9102,10 +9101,10 @@
         <v>5</v>
       </c>
       <c r="AJ63" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK63" t="s">
         <v>291</v>
-      </c>
-      <c r="AK63" t="s">
-        <v>292</v>
       </c>
       <c r="AL63">
         <v>80</v>
@@ -9182,16 +9181,16 @@
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P64" s="1">
         <v>30</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -9301,10 +9300,10 @@
         <v>60</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P65" s="1">
         <v>0</v>
@@ -9335,7 +9334,7 @@
       </c>
       <c r="AH65" s="7"/>
       <c r="AJ65" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK65" s="5" t="s">
         <v>266</v>
@@ -9344,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="AM65" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AN65" s="1"/>
       <c r="AO65" s="1"/>
@@ -9430,16 +9429,16 @@
         <v>61</v>
       </c>
       <c r="N66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O66" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P66">
         <v>30</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AB66">
         <v>1</v>
@@ -9457,10 +9456,10 @@
         <v>0</v>
       </c>
       <c r="AJ66" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK66" t="s">
         <v>294</v>
-      </c>
-      <c r="AK66" t="s">
-        <v>295</v>
       </c>
       <c r="AL66">
         <v>40</v>
@@ -9540,10 +9539,10 @@
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P67" s="1">
         <v>10</v>
@@ -9663,7 +9662,7 @@
         <v>253</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P68" s="1">
         <v>0</v>
@@ -9699,7 +9698,7 @@
         <v>12</v>
       </c>
       <c r="AJ68" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AK68" s="5"/>
       <c r="AL68" s="1">
@@ -9870,10 +9869,10 @@
       <c r="BW69" s="1"/>
       <c r="BX69" s="4"/>
       <c r="BY69" t="s">
+        <v>295</v>
+      </c>
+      <c r="BZ69" t="s">
         <v>296</v>
-      </c>
-      <c r="BZ69" t="s">
-        <v>297</v>
       </c>
       <c r="CA69" s="1"/>
       <c r="CB69" s="7"/>
@@ -9910,7 +9909,7 @@
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1">
@@ -10021,16 +10020,16 @@
         <v>66</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P71" s="1">
         <v>0</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -10061,10 +10060,10 @@
         <v>10</v>
       </c>
       <c r="AJ71" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AK71" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AL71" s="1">
         <v>60</v>
@@ -10154,7 +10153,7 @@
         <v>67</v>
       </c>
       <c r="N72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P72">
         <v>60</v>
@@ -10213,10 +10212,10 @@
       <c r="BW72" s="1"/>
       <c r="BX72" s="4"/>
       <c r="BY72" t="s">
+        <v>297</v>
+      </c>
+      <c r="BZ72" t="s">
         <v>298</v>
-      </c>
-      <c r="BZ72" t="s">
-        <v>299</v>
       </c>
       <c r="CA72" s="1"/>
       <c r="CB72" s="7"/>
@@ -11427,10 +11426,10 @@
       </c>
       <c r="M85" s="4"/>
       <c r="N85" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="O85" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="P85" s="1">
         <v>10</v>
@@ -11466,10 +11465,10 @@
         <v>-1</v>
       </c>
       <c r="AJ85" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AK85" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AL85" s="1">
         <v>40</v>
@@ -11559,10 +11558,10 @@
         <v>81</v>
       </c>
       <c r="N86" t="s">
+        <v>300</v>
+      </c>
+      <c r="O86" t="s">
         <v>301</v>
-      </c>
-      <c r="O86" t="s">
-        <v>302</v>
       </c>
       <c r="P86">
         <v>30</v>
@@ -11587,10 +11586,10 @@
         <v>-1</v>
       </c>
       <c r="AJ86" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK86" t="s">
         <v>303</v>
-      </c>
-      <c r="AK86" t="s">
-        <v>304</v>
       </c>
       <c r="AL86">
         <v>80</v>
@@ -11668,10 +11667,10 @@
       </c>
       <c r="M87" s="4"/>
       <c r="N87" t="s">
+        <v>304</v>
+      </c>
+      <c r="O87" t="s">
         <v>305</v>
-      </c>
-      <c r="O87" t="s">
-        <v>306</v>
       </c>
       <c r="P87">
         <v>30</v>
@@ -11687,7 +11686,7 @@
         <v>102</v>
       </c>
       <c r="AJ87" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AL87">
         <v>30</v>
@@ -11757,16 +11756,16 @@
       </c>
       <c r="M88" s="4"/>
       <c r="N88" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P88" s="1">
         <v>0</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
@@ -11971,7 +11970,7 @@
       </c>
       <c r="M90" s="4"/>
       <c r="N90" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1">
@@ -12080,7 +12079,7 @@
         <v>86</v>
       </c>
       <c r="N91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P91">
         <v>30</v>
@@ -12096,10 +12095,10 @@
         <v>2</v>
       </c>
       <c r="AJ91" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AK91" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AL91">
         <v>50</v>
@@ -12563,10 +12562,10 @@
       </c>
       <c r="M96" s="4"/>
       <c r="N96" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P96" s="1">
         <v>0</v>
@@ -12602,10 +12601,10 @@
         <v>-1</v>
       </c>
       <c r="AJ96" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AK96" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AL96" s="1">
         <v>0</v>
@@ -12697,10 +12696,10 @@
         <v>92</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P97" s="1">
         <v>0</v>
@@ -12733,10 +12732,10 @@
         <v>4</v>
       </c>
       <c r="AJ97" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AK97" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AL97" s="1">
         <v>0</v>
@@ -12920,7 +12919,7 @@
       </c>
       <c r="M99" s="4"/>
       <c r="N99" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1">
@@ -12953,7 +12952,7 @@
         <v>218</v>
       </c>
       <c r="AK99" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AL99" s="1">
         <v>0</v>
@@ -13041,7 +13040,7 @@
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1">
@@ -13071,10 +13070,10 @@
       <c r="AG100" s="1"/>
       <c r="AH100" s="7"/>
       <c r="AJ100" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AK100" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AL100" s="1">
         <v>0</v>
@@ -13561,10 +13560,10 @@
         <v>100</v>
       </c>
       <c r="N105" t="s">
+        <v>311</v>
+      </c>
+      <c r="O105" t="s">
         <v>312</v>
-      </c>
-      <c r="O105" t="s">
-        <v>313</v>
       </c>
       <c r="P105">
         <v>50</v>
@@ -13629,10 +13628,10 @@
       <c r="BW105" s="1"/>
       <c r="BX105" s="4"/>
       <c r="BY105" t="s">
+        <v>309</v>
+      </c>
+      <c r="BZ105" t="s">
         <v>310</v>
-      </c>
-      <c r="BZ105" t="s">
-        <v>311</v>
       </c>
       <c r="CA105" s="1"/>
       <c r="CB105" s="7"/>
@@ -14146,7 +14145,7 @@
       </c>
       <c r="M111" s="4"/>
       <c r="N111" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P111">
         <v>20</v>
@@ -14159,7 +14158,7 @@
         <v>1</v>
       </c>
       <c r="AJ111" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AL111">
         <v>40</v>
@@ -14326,10 +14325,10 @@
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>437</v>
+        <v>584</v>
       </c>
       <c r="P113" s="1">
         <v>10</v>
@@ -14734,10 +14733,10 @@
       </c>
       <c r="M117" s="4"/>
       <c r="N117" t="s">
+        <v>315</v>
+      </c>
+      <c r="O117" t="s">
         <v>316</v>
-      </c>
-      <c r="O117" t="s">
-        <v>317</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -14753,10 +14752,10 @@
         <v>500</v>
       </c>
       <c r="AJ117" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK117" t="s">
         <v>318</v>
-      </c>
-      <c r="AK117" t="s">
-        <v>319</v>
       </c>
       <c r="AL117">
         <v>80</v>
@@ -15875,16 +15874,16 @@
       </c>
       <c r="M128" s="4"/>
       <c r="N128" t="s">
+        <v>319</v>
+      </c>
+      <c r="O128" t="s">
         <v>320</v>
       </c>
-      <c r="O128" t="s">
-        <v>321</v>
-      </c>
       <c r="P128">
         <v>0</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AD128">
         <v>1</v>
@@ -15899,16 +15898,16 @@
         <v>2</v>
       </c>
       <c r="AJ128" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK128" t="s">
         <v>322</v>
-      </c>
-      <c r="AK128" t="s">
-        <v>323</v>
       </c>
       <c r="AL128">
         <v>20</v>
       </c>
       <c r="AM128" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AX128">
         <v>1</v>
@@ -15976,10 +15975,10 @@
       </c>
       <c r="M129" s="4"/>
       <c r="N129" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O129" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P129">
         <v>10</v>
@@ -16001,16 +16000,16 @@
         <v>-1</v>
       </c>
       <c r="AJ129" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AK129" t="s">
-        <v>326</v>
+        <v>585</v>
       </c>
       <c r="AL129">
         <v>30</v>
       </c>
       <c r="AM129" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AQ129">
         <v>1</v>
@@ -16083,7 +16082,7 @@
       </c>
       <c r="M130" s="4"/>
       <c r="N130" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O130" s="1"/>
       <c r="P130" s="1">
@@ -16116,7 +16115,7 @@
         <v>201</v>
       </c>
       <c r="AK130" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AL130" s="1">
         <v>50</v>
@@ -16429,16 +16428,16 @@
       <c r="AG133" s="1"/>
       <c r="AH133" s="7"/>
       <c r="AJ133" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AK133" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AL133" s="1">
         <v>0</v>
       </c>
       <c r="AM133" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AN133" s="1"/>
       <c r="AO133" s="1"/>
@@ -16522,7 +16521,7 @@
         <v>129</v>
       </c>
       <c r="N134" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P134">
         <v>50</v>
@@ -16535,10 +16534,10 @@
         <v>3</v>
       </c>
       <c r="AJ134" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AK134" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AL134">
         <v>40</v>
@@ -17193,10 +17192,10 @@
       </c>
       <c r="M141" s="4"/>
       <c r="N141" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P141" s="1">
         <v>0</v>
@@ -17227,10 +17226,10 @@
       </c>
       <c r="AH141" s="7"/>
       <c r="AJ141" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AK141" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AL141" s="1"/>
       <c r="AM141" s="1">
@@ -17981,10 +17980,10 @@
       </c>
       <c r="M149" s="4"/>
       <c r="N149" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O149" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P149">
         <v>60</v>
@@ -18009,10 +18008,10 @@
         <v>30</v>
       </c>
       <c r="AJ149" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AK149" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AL149">
         <v>100</v>
@@ -18136,7 +18135,7 @@
       </c>
       <c r="M151" s="4"/>
       <c r="N151" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P151">
         <v>10</v>
@@ -18208,7 +18207,7 @@
         <v>147</v>
       </c>
       <c r="N152" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O152" t="s">
         <v>266</v>
@@ -18217,7 +18216,7 @@
         <v>0</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AB152">
         <v>3</v>
@@ -18232,10 +18231,10 @@
         <v>2</v>
       </c>
       <c r="AJ152" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AK152" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AL152">
         <v>20</v>
@@ -18361,16 +18360,16 @@
       </c>
       <c r="M154" s="4"/>
       <c r="N154" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O154" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P154">
         <v>10</v>
       </c>
       <c r="Q154" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AB154">
         <v>1</v>
@@ -18388,10 +18387,10 @@
         <v>0</v>
       </c>
       <c r="AJ154" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AK154" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL154">
         <v>0</v>
@@ -22562,16 +22561,16 @@
         <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -22857,7 +22856,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
@@ -22866,10 +22865,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>342</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -22880,10 +22879,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F3" s="6">
         <v>2000</v>
@@ -22898,10 +22897,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F4" s="6">
         <v>2001</v>
@@ -22916,10 +22915,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F5" s="6">
         <v>2002</v>
@@ -22934,10 +22933,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F6" s="6">
         <v>2003</v>
@@ -22952,10 +22951,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F7" s="6">
         <v>2004</v>
@@ -22970,10 +22969,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F8" s="6">
         <v>2005</v>
@@ -22988,10 +22987,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F9" s="6">
         <v>2006</v>
@@ -23006,10 +23005,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F10" s="6">
         <v>2007</v>
@@ -23024,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F11" s="6">
         <v>2008</v>
@@ -23042,10 +23041,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F12" s="6">
         <v>2009</v>
@@ -23060,10 +23059,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F13" s="6">
         <v>2010</v>
@@ -23078,10 +23077,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F14" s="6">
         <v>2011</v>
@@ -23096,10 +23095,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F15" s="6">
         <v>2012</v>
@@ -23114,10 +23113,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F16" s="6">
         <v>2013</v>
@@ -23132,10 +23131,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F17" s="6">
         <v>2014</v>
@@ -23150,10 +23149,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F18" s="6">
         <v>2015</v>
@@ -23168,10 +23167,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F19" s="6">
         <v>2016</v>
@@ -23186,10 +23185,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F20" s="6">
         <v>2017</v>
@@ -23204,10 +23203,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F21" s="6">
         <v>2018</v>
@@ -23222,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F22" s="6">
         <v>2019</v>
@@ -23240,10 +23239,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F23" s="6">
         <v>2020</v>
@@ -23258,10 +23257,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F24" s="6">
         <v>2021</v>
@@ -23276,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F25" s="6">
         <v>2022</v>
@@ -23294,10 +23293,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F26" s="6">
         <v>2023</v>
@@ -23312,10 +23311,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F27" s="6">
         <v>2024</v>
@@ -23330,10 +23329,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F28" s="6">
         <v>2025</v>
@@ -23478,7 +23477,7 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -23497,16 +23496,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -23520,10 +23519,10 @@
         <v>4</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -23537,10 +23536,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -23554,10 +23553,10 @@
         <v>6</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -23571,10 +23570,10 @@
         <v>7</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I8" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -23588,10 +23587,10 @@
         <v>8</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I9" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -23605,10 +23604,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -23622,10 +23621,10 @@
         <v>10</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J11">
         <v>7</v>
@@ -23639,10 +23638,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I12" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J12">
         <v>8</v>
@@ -23650,10 +23649,10 @@
     </row>
     <row r="13" spans="2:10">
       <c r="H13" s="22" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I13" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J13">
         <v>9</v>
@@ -23661,10 +23660,10 @@
     </row>
     <row r="14" spans="2:10">
       <c r="H14" s="22" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -23672,10 +23671,10 @@
     </row>
     <row r="15" spans="2:10">
       <c r="H15" s="22" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I15" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J15">
         <v>11</v>
@@ -23683,10 +23682,10 @@
     </row>
     <row r="16" spans="2:10">
       <c r="H16" s="22" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="I16" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J16">
         <v>12</v>
@@ -23694,10 +23693,10 @@
     </row>
     <row r="17" spans="8:10">
       <c r="H17" s="22" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I17" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J17">
         <v>13</v>
@@ -23705,10 +23704,10 @@
     </row>
     <row r="18" spans="8:10">
       <c r="H18" s="22" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J18">
         <v>14</v>
@@ -23716,10 +23715,10 @@
     </row>
     <row r="19" spans="8:10">
       <c r="H19" s="22" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J19">
         <v>15</v>
@@ -23727,10 +23726,10 @@
     </row>
     <row r="20" spans="8:10">
       <c r="H20" s="22" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I20" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J20">
         <v>16</v>
@@ -23738,10 +23737,10 @@
     </row>
     <row r="21" spans="8:10">
       <c r="H21" s="22" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J21">
         <v>17</v>
@@ -23749,10 +23748,10 @@
     </row>
     <row r="22" spans="8:10">
       <c r="H22" s="22" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I22" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J22">
         <v>18</v>
@@ -23760,10 +23759,10 @@
     </row>
     <row r="23" spans="8:10">
       <c r="H23" s="22" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I23" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="J23">
         <v>19</v>
@@ -23771,10 +23770,10 @@
     </row>
     <row r="24" spans="8:10">
       <c r="H24" s="22" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I24" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J24">
         <v>20</v>
@@ -23782,10 +23781,10 @@
     </row>
     <row r="25" spans="8:10">
       <c r="H25" s="22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I25" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J25">
         <v>21</v>
@@ -23793,10 +23792,10 @@
     </row>
     <row r="26" spans="8:10">
       <c r="H26" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I26" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J26">
         <v>22</v>
@@ -23804,10 +23803,10 @@
     </row>
     <row r="27" spans="8:10">
       <c r="H27" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J27">
         <v>23</v>
@@ -23815,10 +23814,10 @@
     </row>
     <row r="28" spans="8:10">
       <c r="H28" s="22" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I28" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J28">
         <v>24</v>
@@ -23826,10 +23825,10 @@
     </row>
     <row r="29" spans="8:10">
       <c r="H29" s="22" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I29" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J29">
         <v>25</v>
@@ -23837,10 +23836,10 @@
     </row>
     <row r="30" spans="8:10">
       <c r="H30" s="22" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I30" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J30">
         <v>26</v>
@@ -23848,10 +23847,10 @@
     </row>
     <row r="31" spans="8:10">
       <c r="H31" s="22" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I31" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J31">
         <v>27</v>
@@ -23859,10 +23858,10 @@
     </row>
     <row r="32" spans="8:10">
       <c r="H32" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I32" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J32">
         <v>28</v>
@@ -23870,10 +23869,10 @@
     </row>
     <row r="33" spans="7:11">
       <c r="H33" s="22" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I33" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J33">
         <v>29</v>
@@ -23881,10 +23880,10 @@
     </row>
     <row r="34" spans="7:11">
       <c r="H34" s="22" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I34" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J34">
         <v>30</v>
@@ -23892,10 +23891,10 @@
     </row>
     <row r="35" spans="7:11">
       <c r="H35" s="22" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I35" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J35">
         <v>31</v>
@@ -23903,10 +23902,10 @@
     </row>
     <row r="36" spans="7:11">
       <c r="H36" s="22" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I36" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J36">
         <v>32</v>
@@ -23914,10 +23913,10 @@
     </row>
     <row r="37" spans="7:11">
       <c r="H37" s="22" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J37">
         <v>33</v>
@@ -23925,10 +23924,10 @@
     </row>
     <row r="38" spans="7:11">
       <c r="H38" s="22" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I38" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J38">
         <v>34</v>
@@ -23936,10 +23935,10 @@
     </row>
     <row r="39" spans="7:11">
       <c r="H39" s="22" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I39" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="J39">
         <v>35</v>
@@ -23947,10 +23946,10 @@
     </row>
     <row r="40" spans="7:11">
       <c r="H40" s="22" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I40" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J40">
         <v>36</v>
@@ -23958,10 +23957,10 @@
     </row>
     <row r="41" spans="7:11">
       <c r="H41" s="22" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I41" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J41">
         <v>37</v>
@@ -23969,10 +23968,10 @@
     </row>
     <row r="42" spans="7:11">
       <c r="H42" s="22" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I42" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="J42">
         <v>38</v>
@@ -23980,10 +23979,10 @@
     </row>
     <row r="43" spans="7:11">
       <c r="H43" s="23" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I43" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J43">
         <v>39</v>
@@ -23991,10 +23990,10 @@
     </row>
     <row r="46" spans="7:11">
       <c r="G46" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H46" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -24002,35 +24001,35 @@
     </row>
     <row r="47" spans="7:11">
       <c r="H47" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="48" spans="7:11">
       <c r="H48" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="49" spans="7:11">
       <c r="H49" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I49">
         <v>3</v>
       </c>
       <c r="K49" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50" spans="7:11">
@@ -24038,10 +24037,10 @@
     </row>
     <row r="52" spans="7:11">
       <c r="G52" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H52" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I52">
         <v>100</v>
@@ -24049,7 +24048,7 @@
     </row>
     <row r="53" spans="7:11">
       <c r="H53" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I53">
         <v>101</v>
@@ -24057,29 +24056,29 @@
     </row>
     <row r="54" spans="7:11">
       <c r="H54" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I54">
         <v>102</v>
       </c>
       <c r="K54" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="55" spans="7:11">
       <c r="H55" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I55">
         <v>103</v>
       </c>
       <c r="K55" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="56" spans="7:11">
       <c r="H56" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I56">
         <v>104</v>
@@ -24087,18 +24086,18 @@
     </row>
     <row r="57" spans="7:11">
       <c r="H57" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I57">
         <v>105</v>
       </c>
       <c r="K57" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="58" spans="7:11">
       <c r="H58" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I58">
         <v>106</v>
@@ -24106,7 +24105,7 @@
     </row>
     <row r="60" spans="7:11">
       <c r="G60" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="7:11">
@@ -24120,74 +24119,74 @@
     </row>
     <row r="66" spans="7:12">
       <c r="G66" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H66" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I66">
         <v>200</v>
       </c>
       <c r="K66" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L66" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="67" spans="7:12">
       <c r="H67" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I67">
         <v>201</v>
       </c>
       <c r="K67" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L67" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="7:12">
       <c r="H68" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I68">
         <v>202</v>
       </c>
       <c r="K68" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="69" spans="7:12">
       <c r="H69" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I69">
         <v>203</v>
       </c>
       <c r="K69" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="70" spans="7:12">
       <c r="H70" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I70">
         <v>204</v>
       </c>
       <c r="K70" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L70" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="71" spans="7:12">
       <c r="H71" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I71">
         <v>205</v>
@@ -24195,94 +24194,94 @@
     </row>
     <row r="72" spans="7:12">
       <c r="H72" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I72">
         <v>206</v>
       </c>
       <c r="K72" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73" spans="7:12">
       <c r="H73" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I73">
         <v>207</v>
       </c>
       <c r="K73" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L73" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="74" spans="7:12">
       <c r="H74" s="20" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I74">
         <v>208</v>
       </c>
       <c r="K74" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L74" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" spans="7:12">
       <c r="G76" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H76" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I76">
         <v>300</v>
       </c>
       <c r="K76" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L76" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="7:12">
       <c r="H77" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I77">
         <v>301</v>
       </c>
       <c r="K77" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L77" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="7:12">
       <c r="G83" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H83" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I83">
         <v>400</v>
       </c>
       <c r="K83" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L83" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="84" spans="7:12">
       <c r="H84" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I84">
         <v>401</v>
@@ -24290,10 +24289,10 @@
     </row>
     <row r="89" spans="7:12">
       <c r="G89" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H89" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I89">
         <v>500</v>
@@ -24301,7 +24300,7 @@
     </row>
     <row r="90" spans="7:12">
       <c r="H90" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I90">
         <v>501</v>
@@ -24309,93 +24308,93 @@
     </row>
     <row r="91" spans="7:12">
       <c r="H91" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I91">
         <v>502</v>
       </c>
       <c r="K91" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92" spans="7:12">
       <c r="H92" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I92">
         <v>503</v>
       </c>
       <c r="K92" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="95" spans="7:12">
       <c r="G95" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H95" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I95">
         <v>600</v>
       </c>
       <c r="K95" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="96" spans="7:12">
       <c r="H96" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I96">
         <v>601</v>
       </c>
       <c r="K96" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L96" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="97" spans="7:11">
       <c r="H97" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I97">
         <v>602</v>
       </c>
       <c r="K97" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="101" spans="7:11">
       <c r="G101" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H101" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I101">
         <v>700</v>
       </c>
       <c r="K101" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="102" spans="7:11">
       <c r="H102" s="20" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I102">
         <v>701</v>
       </c>
       <c r="K102" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="103" spans="7:11">
       <c r="H103" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I103">
         <v>702</v>

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pokemon" sheetId="1" r:id="rId1"/>
@@ -2396,9 +2396,9 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="B1:CB204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK110" sqref="AK110"/>
+    <sheetView topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH30" sqref="AH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5767,11 +5767,10 @@
         <v>272</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -5780,10 +5779,7 @@
         <v>2</v>
       </c>
       <c r="AG30">
-        <v>502</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="AJ30" t="s">
         <v>273</v>
@@ -22839,8 +22835,8 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="B1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -22894,7 +22890,7 @@
         <v>2001</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>348</v>
@@ -22948,7 +22944,7 @@
         <v>2004</v>
       </c>
       <c r="C7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>351</v>
@@ -23074,7 +23070,7 @@
         <v>2011</v>
       </c>
       <c r="C14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>368</v>
@@ -23146,7 +23142,7 @@
         <v>2015</v>
       </c>
       <c r="C18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>374</v>
@@ -23272,7 +23268,7 @@
         <v>2022</v>
       </c>
       <c r="C25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>385</v>

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -19,6 +19,7 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
